--- a/data/hotels_by_city/Houston/Houston_shard_574.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_574.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56432-d816503-Reviews-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Sleep-Inn-And-Suites-Pearland-Houston-South.h2570231.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531620048619&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=c09c690b-16f2-4cdb-85bf-5bbad7cd31a6&amp;mctc=9&amp;exp_dp=81&amp;exp_ts=1531620049220&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,925 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r549628290-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>816503</t>
+  </si>
+  <si>
+    <t>549628290</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close to my family </t>
+  </si>
+  <si>
+    <t>We chose this place because it was a few miles from my family’s house and we were visiting for the holidays.  The stay was pretty good, clean and pretty comfortable.  We had a king room with a pull out couch for my daughter.   She ended up sleeping on the couch itself since the springs were poking her from the mattress.  We were on the main floor right next to the elevator and heard that and the ice machine all night long.  The walls to the next rooms seemed sound proof but not the door itself.  On top of that every morning we’d hear the housekeepers yelling, yes yelling, down the hall to someone else. You’d think they’d be more courteous knowing it was early and people might still be asleep.  The breakfast was mediocre at best and from talking to other guests we were not the only ones feeling that way. The clerk the first night was very helpful but the guy the next 2 nights was not so much.  There are 22 families there for FEMA according to one lady I spoke too. Some crime in the area, a stolen car our last night there. They have 2 guest laundry spots if needed, an outdoor pool and a fitness room.  Overall due to the location I was happy but feel it might have been over priced for the stay itself with other factors include.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We chose this place because it was a few miles from my family’s house and we were visiting for the holidays.  The stay was pretty good, clean and pretty comfortable.  We had a king room with a pull out couch for my daughter.   She ended up sleeping on the couch itself since the springs were poking her from the mattress.  We were on the main floor right next to the elevator and heard that and the ice machine all night long.  The walls to the next rooms seemed sound proof but not the door itself.  On top of that every morning we’d hear the housekeepers yelling, yes yelling, down the hall to someone else. You’d think they’d be more courteous knowing it was early and people might still be asleep.  The breakfast was mediocre at best and from talking to other guests we were not the only ones feeling that way. The clerk the first night was very helpful but the guy the next 2 nights was not so much.  There are 22 families there for FEMA according to one lady I spoke too. Some crime in the area, a stolen car our last night there. They have 2 guest laundry spots if needed, an outdoor pool and a fitness room.  Overall due to the location I was happy but feel it might have been over priced for the stay itself with other factors include.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r507574796-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>507574796</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Clean and easy on and off of 288</t>
+  </si>
+  <si>
+    <t>I have stayed here before so knew it was trustworthy.  This trip had me with my aging mother who needs a shower chair.  They had no accessible rooms available but the surprise was that they had not shower chair either, nor did the desk agent understand the request at first.  If finally got a chair from the breakfast area and set it up in the bathtub with a towel over it for her.  Otherwise clean and breakast area was well kept and typical food.  Not towels at pool, you had to ask at the desk but no directions to do so.......we happed to see it done so knew to ask.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I have stayed here before so knew it was trustworthy.  This trip had me with my aging mother who needs a shower chair.  They had no accessible rooms available but the surprise was that they had not shower chair either, nor did the desk agent understand the request at first.  If finally got a chair from the breakfast area and set it up in the bathtub with a towel over it for her.  Otherwise clean and breakast area was well kept and typical food.  Not towels at pool, you had to ask at the desk but no directions to do so.......we happed to see it done so knew to ask.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r473191522-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>473191522</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel overall</t>
+  </si>
+  <si>
+    <t>Staff was mostly pleasant and professional. Breakfast is Hot and free, fresh fruit and yogurt. Free Internet access from rooms. Nice hotel decor, lounge decor and room decor of nature with modern design. Third Floor was a bit humid when stepping off the elevator, my room on the first floor was humid when I first walked in. The Fitness room design was nice but the elliptical was very loud, rusted and squeaky so I did not use it. Great selection of television channels for entertainment. I like the availability of note pads and pen on desk (I write a lot of notes).Very secure parking lot with bright lights and cameras. Spacious business desk and chair design but the chair had a really bad looking stain in it. They said they do not provide receipts until checkout which is unprofessional in my opinion. When a customer purchases something they should get some type of receipt immediately after, especially if staying for days. I noticed a Front Desk staff had left my receipt out and faced upwards on the counter one night where others could visibly see it, including other guests. This is not a good business practice especially with identity theft and invasion of privacy being invaded in todays society. Confidentiality, consistent customer service and safety should be a top priority of any business for all customers.I found a baby spider crawling on my bed in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Staff was mostly pleasant and professional. Breakfast is Hot and free, fresh fruit and yogurt. Free Internet access from rooms. Nice hotel decor, lounge decor and room decor of nature with modern design. Third Floor was a bit humid when stepping off the elevator, my room on the first floor was humid when I first walked in. The Fitness room design was nice but the elliptical was very loud, rusted and squeaky so I did not use it. Great selection of television channels for entertainment. I like the availability of note pads and pen on desk (I write a lot of notes).Very secure parking lot with bright lights and cameras. Spacious business desk and chair design but the chair had a really bad looking stain in it. They said they do not provide receipts until checkout which is unprofessional in my opinion. When a customer purchases something they should get some type of receipt immediately after, especially if staying for days. I noticed a Front Desk staff had left my receipt out and faced upwards on the counter one night where others could visibly see it, including other guests. This is not a good business practice especially with identity theft and invasion of privacy being invaded in todays society. Confidentiality, consistent customer service and safety should be a top priority of any business for all customers.I found a baby spider crawling on my bed in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r401683091-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>401683091</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>Hotel was near Pearland shopping center, Walmart, and everything you can imagine. It was quiet and safe. Room was excellent! Great shower, bed, pillows and breakfast!Will stay again if I ever find myself in Pearland, TX again. Loved it!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>neil b, Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was near Pearland shopping center, Walmart, and everything you can imagine. It was quiet and safe. Room was excellent! Great shower, bed, pillows and breakfast!Will stay again if I ever find myself in Pearland, TX again. Loved it!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r398033179-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>398033179</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Motel  is Nice &amp; Clean </t>
+  </si>
+  <si>
+    <t>I stayed at this Motel from  July 21st till July 25th. I was in town for a family reunion. Honestly I was a little scared to stay at this Motel bc of the reviews. But honestly I had an awesome experience. This place is extremely nice &amp; you truly get your money's worth plus more. This place is very clean &amp; the staff is nice &amp; helpful. The housekeepers come by everyday with clean towels  and they leave your room spotless. It's so hot in Pearland, so it's a great bonus to be able to control your own AC. It felt great coming back to a freshly cleaned room, and cold air blowing daily. I would definitely recommend this place to anybody. It's really nice! They have complimentary breakfast every morning, and the eating area was clean, and the breakfast was great. I will definitely stay here again. Hopefully I can get a whirlpool room next time! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel from  July 21st till July 25th. I was in town for a family reunion. Honestly I was a little scared to stay at this Motel bc of the reviews. But honestly I had an awesome experience. This place is extremely nice &amp; you truly get your money's worth plus more. This place is very clean &amp; the staff is nice &amp; helpful. The housekeepers come by everyday with clean towels  and they leave your room spotless. It's so hot in Pearland, so it's a great bonus to be able to control your own AC. It felt great coming back to a freshly cleaned room, and cold air blowing daily. I would definitely recommend this place to anybody. It's really nice! They have complimentary breakfast every morning, and the eating area was clean, and the breakfast was great. I will definitely stay here again. Hopefully I can get a whirlpool room next time! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r396594221-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>396594221</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Overall Nice Stay</t>
+  </si>
+  <si>
+    <t>Room was clean and serviced daily, although I did request extra towels cause grandkids coming to visit and got none.  Refrigerator froze my drinks which was annoying and I told the clerk at checkout, but nothing in response.  Pool was small but the umbrellas on tables worked so we had shade.  They were doing some refreshing of paint in the front drive and it looked nice once done.  Breakfast was just "ok", although it was the exact same every morning.  For those that stay more than a night, it gets old quickly.   Overall, a nice stay and would stay there again for 1 night when traveling but not sure would do multiple nights again.MoreShow less</t>
+  </si>
+  <si>
+    <t>neil b, Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean and serviced daily, although I did request extra towels cause grandkids coming to visit and got none.  Refrigerator froze my drinks which was annoying and I told the clerk at checkout, but nothing in response.  Pool was small but the umbrellas on tables worked so we had shade.  They were doing some refreshing of paint in the front drive and it looked nice once done.  Breakfast was just "ok", although it was the exact same every morning.  For those that stay more than a night, it gets old quickly.   Overall, a nice stay and would stay there again for 1 night when traveling but not sure would do multiple nights again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r350045947-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>350045947</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>very nice staff!</t>
+  </si>
+  <si>
+    <t>Very clean and quiet.  Front desk staff are very friendly. Good free breakfast includes both hot and cold foods.Choice of 4 juices. Big-screen wall-mounted TV with DISH. VERY large bathroom with walk-in shower. Will happily return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>neil b, AGM at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Very clean and quiet.  Front desk staff are very friendly. Good free breakfast includes both hot and cold foods.Choice of 4 juices. Big-screen wall-mounted TV with DISH. VERY large bathroom with walk-in shower. Will happily return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r333752059-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>333752059</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>Good Place to Stay in the Area</t>
+  </si>
+  <si>
+    <t>If you are in the Pearland area and need  reasonably priced accommodations this place would fill the bill.  It is easy to get to, has good parking, and is close to dining and shopping.  The breakfast was somewhat lacking. This is a newer hotel so the rooms are nice with a flat screen TV, microwave, and fridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>neil b, Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>If you are in the Pearland area and need  reasonably priced accommodations this place would fill the bill.  It is easy to get to, has good parking, and is close to dining and shopping.  The breakfast was somewhat lacking. This is a newer hotel so the rooms are nice with a flat screen TV, microwave, and fridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r301215701-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>301215701</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>it was ok</t>
+  </si>
+  <si>
+    <t>It was very clean.There was a smell when you walk in.It was want ever clean with.It was very easy to check in . There was stain on the sheet.I know it was clean.they could have better  breakfast. The pool is nices . It took a little for the hot water to come onMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>neil b, Front Office Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>It was very clean.There was a smell when you walk in.It was want ever clean with.It was very easy to check in . There was stain on the sheet.I know it was clean.they could have better  breakfast. The pool is nices . It took a little for the hot water to come onMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r291615829-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>291615829</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Very clean, well furnished with a great price!</t>
+  </si>
+  <si>
+    <t>We arrived late in the evening without reservations. The reception desk was welcoming and friendly.  The room was a pleasant surprise; a king size suite with microwave and refrigerator. Even more welcome was the walk-in shower with two shower heads, one "rain" and one standard.  After a tough day of helping our son and his wife move the shower was delightful! The hotel offers a full breakfast which we slept through.  Check out was friendly and quick.  We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We arrived late in the evening without reservations. The reception desk was welcoming and friendly.  The room was a pleasant surprise; a king size suite with microwave and refrigerator. Even more welcome was the walk-in shower with two shower heads, one "rain" and one standard.  After a tough day of helping our son and his wife move the shower was delightful! The hotel offers a full breakfast which we slept through.  Check out was friendly and quick.  We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r278619341-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>278619341</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Suite Motel in South Houston</t>
+  </si>
+  <si>
+    <t>We enjoyed a very comfortable room at the Sleep Inn, a member of the Choice Hotel group.  Our room was large with everything we needed - comfortable king bed, great air conditioning (very quiet) for the Houston summer, microwave, fridge, etc.  The free breakfast looked ok (met friends elsewhere for breakfast) and the coffee was fresh and tasty.  The place was very clean and the staff were friendly.  This is a decent place to stay in south Houston and the price was very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We enjoyed a very comfortable room at the Sleep Inn, a member of the Choice Hotel group.  Our room was large with everything we needed - comfortable king bed, great air conditioning (very quiet) for the Houston summer, microwave, fridge, etc.  The free breakfast looked ok (met friends elsewhere for breakfast) and the coffee was fresh and tasty.  The place was very clean and the staff were friendly.  This is a decent place to stay in south Houston and the price was very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r267392730-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>267392730</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Business in Pearland</t>
+  </si>
+  <si>
+    <t>No reservation made ahead of time. Googled options. Found Sleep Inn &amp; Suites with a good (4-star) rating. We thought, why not? And so we drove up and got a room. Pleasantly surprised. Close to all things. And room was clean...after all, clean is the most important thing! Added to the good report: Staff was super accommodating.NOTE: Breakfast better than most!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>No reservation made ahead of time. Googled options. Found Sleep Inn &amp; Suites with a good (4-star) rating. We thought, why not? And so we drove up and got a room. Pleasantly surprised. Close to all things. And room was clean...after all, clean is the most important thing! Added to the good report: Staff was super accommodating.NOTE: Breakfast better than most!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r246793573-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>246793573</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Family time!</t>
+  </si>
+  <si>
+    <t>Family in town, was a great stay. Staff was very professional and making our stay outstanding! Close Pearland Town car, lots of resturants and shopping close by. Would definitely recommend. Oh can't forget the happy hour enjoyed by all!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded January 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2015</t>
+  </si>
+  <si>
+    <t>Family in town, was a great stay. Staff was very professional and making our stay outstanding! Close Pearland Town car, lots of resturants and shopping close by. Would definitely recommend. Oh can't forget the happy hour enjoyed by all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r243059975-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>243059975</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>Don't fight the Houston traffic</t>
+  </si>
+  <si>
+    <t>Consider this hotel as an alternative to Houston hotels when in town for medical services.  A short ten minute trip up Hwy 288  gets you to the Medical District without fighting the stop-and-go traffic you encounter when staying at hotels much closer to the medical facilities.  Clean, reasonable, Dish TV , outdoor whirlpool and swimming pool, decent breakfast- all combined with a helpful staff make this a positive experience.  Good restaurants and shopping within minutes are an added bonus.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded December 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2014</t>
+  </si>
+  <si>
+    <t>Consider this hotel as an alternative to Houston hotels when in town for medical services.  A short ten minute trip up Hwy 288  gets you to the Medical District without fighting the stop-and-go traffic you encounter when staying at hotels much closer to the medical facilities.  Clean, reasonable, Dish TV , outdoor whirlpool and swimming pool, decent breakfast- all combined with a helpful staff make this a positive experience.  Good restaurants and shopping within minutes are an added bonus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r237730597-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>237730597</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Good hotel for visiting Houston area but.....</t>
+  </si>
+  <si>
+    <t>Good hotel for visiting the Houston area but on this visit it had a couple of problems. First let me say the staff is always friendly and helpful when we have a question or need something. On this visit the corridor of the first floor was very noisy and extremely loud after 11 pm on both Friday and Sat. nights. A nice sign reminding quiet after 11 pm would be great. Also the breakfast/front desk person did not check on missing breakfast items. We had to go and tell them when something was needed like coffee cups, danish, eggs, breakfast meats, etc. This was at 7 not 9:30 when breakfast closes down.MoreShow less</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Good hotel for visiting the Houston area but on this visit it had a couple of problems. First let me say the staff is always friendly and helpful when we have a question or need something. On this visit the corridor of the first floor was very noisy and extremely loud after 11 pm on both Friday and Sat. nights. A nice sign reminding quiet after 11 pm would be great. Also the breakfast/front desk person did not check on missing breakfast items. We had to go and tell them when something was needed like coffee cups, danish, eggs, breakfast meats, etc. This was at 7 not 9:30 when breakfast closes down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r218798242-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>218798242</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Nice clean and updated hotel</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here. The location was wonderful, although my GPS got confused by the new roads, it is in a beautiful area. This hotel has most things you would assume from a newer modern choice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>neil b, Front Office Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here. The location was wonderful, although my GPS got confused by the new roads, it is in a beautiful area. This hotel has most things you would assume from a newer modern choice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r215977425-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>215977425</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Great hospitality</t>
+  </si>
+  <si>
+    <t>I booked this hotel since we were visiting at the zoo. The staff got us in earlier than our reservation time. Breakfast was good. Staff was very friendly. Here's where I will nitpick.Bad parts:Huge stain on the carpet. Our alarm clock did not workOur phone did not workThe shower rod was broken at the wall jointOnly one ceiling lightno ice bucketOur coffee maker was jammed and wouldn't openSoap scum was all over the shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>I booked this hotel since we were visiting at the zoo. The staff got us in earlier than our reservation time. Breakfast was good. Staff was very friendly. Here's where I will nitpick.Bad parts:Huge stain on the carpet. Our alarm clock did not workOur phone did not workThe shower rod was broken at the wall jointOnly one ceiling lightno ice bucketOur coffee maker was jammed and wouldn't openSoap scum was all over the shower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r215065124-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>215065124</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Good hotel close to Houston</t>
+  </si>
+  <si>
+    <t>This is a nice hotel close to Houston. We have family in the area and it is perfect to see our family and very easy to Houston to do some sightseeing. The hotel has a nice pool, fitness room and hot breakfast. We were there three days and they did serve the same thing each morning for breakfast. A little more variety would have been nice. All the staff was super nice and helpful and it is close to many restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>This is a nice hotel close to Houston. We have family in the area and it is perfect to see our family and very easy to Houston to do some sightseeing. The hotel has a nice pool, fitness room and hot breakfast. We were there three days and they did serve the same thing each morning for breakfast. A little more variety would have been nice. All the staff was super nice and helpful and it is close to many restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r211686949-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>211686949</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>#1 Customer Service in my book!</t>
+  </si>
+  <si>
+    <t>Found this hotel for company executives and customers from overseas.  Customer Service/Reservations was superb!  Very helpful and professional.  They all enjoyed the beautiful suites.  Nice and clean.  Jen, you are super!  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Found this hotel for company executives and customers from overseas.  Customer Service/Reservations was superb!  Very helpful and professional.  They all enjoyed the beautiful suites.  Nice and clean.  Jen, you are super!  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r207969156-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>207969156</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Good Hotel lousy service...</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel recently for business, had a number of hassels starting with when we needed to change reservation, hotel staff did so grudgingly and upcharged for the change even though the change listed for the same on the web. Then when we got there around 7pm we had to wait 5 minutes for the desk staff to come out and check us in and then the process was interrupted by what I can only guess was the desk attendant's son who came down from upstairs for some change (presumably to use in the snack machines on the second floor). The facilities themselves were nice, though the bed was a little on the hard side for my tastes. Nice pool and working Spa outside and a decent enough workout room. Breakfast was decent but nothing special.Would have easily been a 4.5 if not for the service.MoreShow less</t>
+  </si>
+  <si>
+    <t>sleepinnpearland, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel recently for business, had a number of hassels starting with when we needed to change reservation, hotel staff did so grudgingly and upcharged for the change even though the change listed for the same on the web. Then when we got there around 7pm we had to wait 5 minutes for the desk staff to come out and check us in and then the process was interrupted by what I can only guess was the desk attendant's son who came down from upstairs for some change (presumably to use in the snack machines on the second floor). The facilities themselves were nice, though the bed was a little on the hard side for my tastes. Nice pool and working Spa outside and a decent enough workout room. Breakfast was decent but nothing special.Would have easily been a 4.5 if not for the service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r207743903-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>207743903</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Excellent Facility for the Price</t>
+  </si>
+  <si>
+    <t>They have been re-decorating all the rooms. I have stayed here on 3 successive business trips and had good experiences every time. The rooms are large, as are the bathrooms. Very large wall-mounted flat-screen TVs. Nice breakfast items, both hot and cold. not too far off the 288 expressway.There is a nice pool, which I did not use. No restaurent but near to many choices for food.MoreShow less</t>
+  </si>
+  <si>
+    <t>They have been re-decorating all the rooms. I have stayed here on 3 successive business trips and had good experiences every time. The rooms are large, as are the bathrooms. Very large wall-mounted flat-screen TVs. Nice breakfast items, both hot and cold. not too far off the 288 expressway.There is a nice pool, which I did not use. No restaurent but near to many choices for food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r193867934-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>193867934</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>Accidental visit</t>
+  </si>
+  <si>
+    <t>We were rerouted to this hotel when at 12am, our original hotel gave away our room. Annell, the desk person, ensured our (mine and my business partner's) rooms were close. In addition, she set up a wake up call for my partner and called for car service in the morning. All with a smile.The next morning, Annell had set up the food service. She also called without our request to verify the pickup for us. They cancelled on her. This was at the end of her shift. Instead of trying to find another service for us, SHE drove us to our other hotel!!! The woman was unbelievable. You do not meet great people like her very often. We were lucky!  She is an asset wherever she works.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2014</t>
+  </si>
+  <si>
+    <t>We were rerouted to this hotel when at 12am, our original hotel gave away our room. Annell, the desk person, ensured our (mine and my business partner's) rooms were close. In addition, she set up a wake up call for my partner and called for car service in the morning. All with a smile.The next morning, Annell had set up the food service. She also called without our request to verify the pickup for us. They cancelled on her. This was at the end of her shift. Instead of trying to find another service for us, SHE drove us to our other hotel!!! The woman was unbelievable. You do not meet great people like her very often. We were lucky!  She is an asset wherever she works.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r192417656-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>192417656</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Best hotel ever</t>
+  </si>
+  <si>
+    <t>I been coming for a year a half the staff very friendly the room are  big plenty of room they have free Breakfast very good and to top it all they started a happy hour with FREE BEER and wings can't beat that so come and stay here you won't be disappointedMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I been coming for a year a half the staff very friendly the room are  big plenty of room they have free Breakfast very good and to top it all they started a happy hour with FREE BEER and wings can't beat that so come and stay here you won't be disappointedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r185717689-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>185717689</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>awesome place, hands down!</t>
+  </si>
+  <si>
+    <t>I stayed there 2 weeks ago with my husband and due to his job we extended or stay through Thursday. I'm so glad we stayed because there was a happy hour, free of charge for all guests.  It was very nice,, had some wings and beer. Had no problems with our stay, free breakfast and wifi was included and the walk in shower was amazing! Best rate we found! We'll be back in 3 weeks! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I stayed there 2 weeks ago with my husband and due to his job we extended or stay through Thursday. I'm so glad we stayed because there was a happy hour, free of charge for all guests.  It was very nice,, had some wings and beer. Had no problems with our stay, free breakfast and wifi was included and the walk in shower was amazing! Best rate we found! We'll be back in 3 weeks! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r183879678-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>183879678</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Low on service</t>
+  </si>
+  <si>
+    <t>I stayed one night here recently. The room I was large, with a good sized bathroom and huge shower. However the room seemed a little dirty (the sides etc were polished and the bedding clean) but the carpet and paint in the room and surround areas has seen better days.In the morning there was no one assistant at breakfast, there was good laid out. Paper plates and plastic cutlery we dotted about for use. The food was pretty bad, I was relieved to be leaving.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>sleepinnpearland, Front Office Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>I stayed one night here recently. The room I was large, with a good sized bathroom and huge shower. However the room seemed a little dirty (the sides etc were polished and the bedding clean) but the carpet and paint in the room and surround areas has seen better days.In the morning there was no one assistant at breakfast, there was good laid out. Paper plates and plastic cutlery we dotted about for use. The food was pretty bad, I was relieved to be leaving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r180182916-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>180182916</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Best Place - Home away from Home</t>
+  </si>
+  <si>
+    <t>My stay at Sleep Inn &amp; Suites was the GREATEST!!!!. I stayed at the Sleep Inn on the weekend of my Birthday and it was fantastic.  The staff was very professional and friendly.  No matter how many times I called for assistance  there was always a smile on the other end.  The rooms were also great.- Got a real good nights sleep.  I highly recommend this hotel for family reunions, class reunions, or just a weekend getaway.  This is the place, if you want that Home away from Home feeling.   - Not to forget the Continental breakfast- it was Hmmmm Good.  Thanks, Sleep InnB.YMoreShow less</t>
+  </si>
+  <si>
+    <t>sleepinnpearland, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>My stay at Sleep Inn &amp; Suites was the GREATEST!!!!. I stayed at the Sleep Inn on the weekend of my Birthday and it was fantastic.  The staff was very professional and friendly.  No matter how many times I called for assistance  there was always a smile on the other end.  The rooms were also great.- Got a real good nights sleep.  I highly recommend this hotel for family reunions, class reunions, or just a weekend getaway.  This is the place, if you want that Home away from Home feeling.   - Not to forget the Continental breakfast- it was Hmmmm Good.  Thanks, Sleep InnB.YMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r174485589-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>174485589</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>excellent stay</t>
+  </si>
+  <si>
+    <t>Just spent the weekend at this hotel. It was our first experience at this property and I would highly recommend it to anyone. Its clean, modern, well run, and has all the amenities one would want in a motel stay. The pool area is clean though a bit small. the rooms are luxurious and have all the modern conveniences you want. The staff was friendly and attentive- front desk staff courteous and helpful, and the whole staff seemed eager to please their guests. The continental breakfast was above average. If you want a family friendly place to stay, this is it. Things for everyone to do and very kid friendly-- BorisMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>sleepinnpearland, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Just spent the weekend at this hotel. It was our first experience at this property and I would highly recommend it to anyone. Its clean, modern, well run, and has all the amenities one would want in a motel stay. The pool area is clean though a bit small. the rooms are luxurious and have all the modern conveniences you want. The staff was friendly and attentive- front desk staff courteous and helpful, and the whole staff seemed eager to please their guests. The continental breakfast was above average. If you want a family friendly place to stay, this is it. Things for everyone to do and very kid friendly-- BorisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r165224584-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>165224584</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Clean and VERY helpful front desks</t>
+  </si>
+  <si>
+    <t>My girlfriends and I could not find any hotels downtown that was affordable and so we headed to Pearland. We saw Sleep inn and Suites right away from 288 so it was very convenient. I went in and inquired how much rooms cost, it was a little higher than expected but everybody was sold out around. The front desk lady was very helpful seeing there were only a few rooms available. I asked if she could show me a couple of rooms.. She had showed me a King suite? and the Jacuzzi suite.. The rooms were wonderful, and surprisingly clean. I went and got the Jacuzzi suite because it was awesome! She gave us a negotiable rate so I went ahead and got the room.
+For a hotel that was almost sold out I would expect noise and such, and I jinxed myself for thinking it. There was a loud thump above our room that would just not stop. I called the front desk late at night and told her that the guest above us was being too loud. She said she would take of it.. A few minutes later it had stopped and she gave us a call back to let us know... Terrific! :)
+The morning of our check out, we had breakfast at their buffet which was Average, I loved the Texas shaped waffle.
+The lady checking us out was all smiles, which is rare in my...My girlfriends and I could not find any hotels downtown that was affordable and so we headed to Pearland. We saw Sleep inn and Suites right away from 288 so it was very convenient. I went in and inquired how much rooms cost, it was a little higher than expected but everybody was sold out around. The front desk lady was very helpful seeing there were only a few rooms available. I asked if she could show me a couple of rooms.. She had showed me a King suite? and the Jacuzzi suite.. The rooms were wonderful, and surprisingly clean. I went and got the Jacuzzi suite because it was awesome! She gave us a negotiable rate so I went ahead and got the room.For a hotel that was almost sold out I would expect noise and such, and I jinxed myself for thinking it. There was a loud thump above our room that would just not stop. I called the front desk late at night and told her that the guest above us was being too loud. She said she would take of it.. A few minutes later it had stopped and she gave us a call back to let us know... Terrific! :)The morning of our check out, we had breakfast at their buffet which was Average, I loved the Texas shaped waffle.The lady checking us out was all smiles, which is rare in my hotel experience.All in all, our stay was SPLENDID! would definitely come back and stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My girlfriends and I could not find any hotels downtown that was affordable and so we headed to Pearland. We saw Sleep inn and Suites right away from 288 so it was very convenient. I went in and inquired how much rooms cost, it was a little higher than expected but everybody was sold out around. The front desk lady was very helpful seeing there were only a few rooms available. I asked if she could show me a couple of rooms.. She had showed me a King suite? and the Jacuzzi suite.. The rooms were wonderful, and surprisingly clean. I went and got the Jacuzzi suite because it was awesome! She gave us a negotiable rate so I went ahead and got the room.
+For a hotel that was almost sold out I would expect noise and such, and I jinxed myself for thinking it. There was a loud thump above our room that would just not stop. I called the front desk late at night and told her that the guest above us was being too loud. She said she would take of it.. A few minutes later it had stopped and she gave us a call back to let us know... Terrific! :)
+The morning of our check out, we had breakfast at their buffet which was Average, I loved the Texas shaped waffle.
+The lady checking us out was all smiles, which is rare in my...My girlfriends and I could not find any hotels downtown that was affordable and so we headed to Pearland. We saw Sleep inn and Suites right away from 288 so it was very convenient. I went in and inquired how much rooms cost, it was a little higher than expected but everybody was sold out around. The front desk lady was very helpful seeing there were only a few rooms available. I asked if she could show me a couple of rooms.. She had showed me a King suite? and the Jacuzzi suite.. The rooms were wonderful, and surprisingly clean. I went and got the Jacuzzi suite because it was awesome! She gave us a negotiable rate so I went ahead and got the room.For a hotel that was almost sold out I would expect noise and such, and I jinxed myself for thinking it. There was a loud thump above our room that would just not stop. I called the front desk late at night and told her that the guest above us was being too loud. She said she would take of it.. A few minutes later it had stopped and she gave us a call back to let us know... Terrific! :)The morning of our check out, we had breakfast at their buffet which was Average, I loved the Texas shaped waffle.The lady checking us out was all smiles, which is rare in my hotel experience.All in all, our stay was SPLENDID! would definitely come back and stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r165211811-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>165211811</t>
+  </si>
+  <si>
+    <t>wonderful stay! :)</t>
+  </si>
+  <si>
+    <t>I arrived on Thursday June 20 for a local kids' event and left Sunday morning. I wish I could've stayed longer. My twins loved this place, especially the breakfast! Yummy! It's not a continental breakfast as we first thought, but a full hot breakfast. Staff was super awesome, we asked for extra towels Friday night before getting in the pool and the young lady at front desk even brought it to my room. I wasn't expecting the extra courtesy but it was a nice surprise! We'll be returning. By the way, I each room our group reserved had its own thermostat, flat screen tv, microwave and fridge. Oh, and our double-headed shower was AMAZING!!! Price was perfect and hotel was easy to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I arrived on Thursday June 20 for a local kids' event and left Sunday morning. I wish I could've stayed longer. My twins loved this place, especially the breakfast! Yummy! It's not a continental breakfast as we first thought, but a full hot breakfast. Staff was super awesome, we asked for extra towels Friday night before getting in the pool and the young lady at front desk even brought it to my room. I wasn't expecting the extra courtesy but it was a nice surprise! We'll be returning. By the way, I each room our group reserved had its own thermostat, flat screen tv, microwave and fridge. Oh, and our double-headed shower was AMAZING!!! Price was perfect and hotel was easy to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r164719732-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>164719732</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>No frills and poor customer service</t>
+  </si>
+  <si>
+    <t>This is a new, no frills hotel.  We were arriving late (10PM) and called the hotel twice to let them know and asked them to turn the air on in the room so it would be cool when we arrived.  Guest agent said no problem.  When we arrived @ 11PM, the room was hot.  I called the front desk to inquire if they received out message, she said no, "must have been the other lady".  I asked for a fan and she said they didn't have any. Next morning we went down for breakfast, and there were no coffee cups at the buffet.  I searched around but didn't locate any.  I notified the front desk agent who replied they are by the coffee maker.  I informed him I looked and only lids were available.  He said I guess we are out and went back to the front desk (20 ft. away).  I asked him to inquire with housekeeping.  He replied they aren't here yet (8:30AM?) .  I asked him to look on one of their carts as they should have cups.  He said it's locked up. I asked him to look again and he found them on a housekeepers cart.  I shouldn't have to be the one to ask him to locate coffee cups.  He was unconcerned.  The breakfast buffet was almost empty and noone was around to take care of it. Overall, rooms were clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new, no frills hotel.  We were arriving late (10PM) and called the hotel twice to let them know and asked them to turn the air on in the room so it would be cool when we arrived.  Guest agent said no problem.  When we arrived @ 11PM, the room was hot.  I called the front desk to inquire if they received out message, she said no, "must have been the other lady".  I asked for a fan and she said they didn't have any. Next morning we went down for breakfast, and there were no coffee cups at the buffet.  I searched around but didn't locate any.  I notified the front desk agent who replied they are by the coffee maker.  I informed him I looked and only lids were available.  He said I guess we are out and went back to the front desk (20 ft. away).  I asked him to inquire with housekeeping.  He replied they aren't here yet (8:30AM?) .  I asked him to look on one of their carts as they should have cups.  He said it's locked up. I asked him to look again and he found them on a housekeepers cart.  I shouldn't have to be the one to ask him to locate coffee cups.  He was unconcerned.  The breakfast buffet was almost empty and noone was around to take care of it. Overall, rooms were clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r157988192-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>157988192</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>SLEEP INN PEARLAND TEXAS</t>
+  </si>
+  <si>
+    <t>My name is Kevin Hall. I am from Brazoria,TX. I want to stop and say how much I have enjoyed my stays at the Pearland Sleep Inn. The rooms are lovely and clean. I really enjoy the managers also. They are some very nice guys and they always treat me extremely well. Out of all the hotels in the Pearland area there is no better choice than the Sleep Inn. Hands down!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>sleepinnpearland, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded September 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2013</t>
+  </si>
+  <si>
+    <t>My name is Kevin Hall. I am from Brazoria,TX. I want to stop and say how much I have enjoyed my stays at the Pearland Sleep Inn. The rooms are lovely and clean. I really enjoy the managers also. They are some very nice guys and they always treat me extremely well. Out of all the hotels in the Pearland area there is no better choice than the Sleep Inn. Hands down!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r155593642-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>155593642</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Quite Impressed!</t>
+  </si>
+  <si>
+    <t>I was quite impressed!! The hotel is in a great location and easy to get to. There are alot of resturants and shopping just down the street. The hotel and rooms were very clean and updated!The Staff was friendly and helpful.my kids and I  were surprised to learn they serve a free hot breakfast every morning. We will be back most definately!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I was quite impressed!! The hotel is in a great location and easy to get to. There are alot of resturants and shopping just down the street. The hotel and rooms were very clean and updated!The Staff was friendly and helpful.my kids and I  were surprised to learn they serve a free hot breakfast every morning. We will be back most definately!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r154807414-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>154807414</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Pleasant surprise!</t>
+  </si>
+  <si>
+    <t>I was regretting having to stay at the Sleep Inn.  I envisioned a run down hotel with bed bugs.Not so.  New hotel, well run, very clean and a get value for the money.This is a pet friendly hotel.  highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was regretting having to stay at the Sleep Inn.  I envisioned a run down hotel with bed bugs.Not so.  New hotel, well run, very clean and a get value for the money.This is a pet friendly hotel.  highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r131567960-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>131567960</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Began upsetting, but it all worked out.</t>
+  </si>
+  <si>
+    <t>As a party of five, we had booked through Expedia, after being told by staff over the phone it would be cheaper. A rollaway was needed and we were told there would be one for our party, just ask at the front desk upon arrival. An extra fee was charged for this, which is to be expected.
+UPon arrival there the staff on duty said there was no rollaway and that no staff of his would tell a client to book elsewhere because it was cheaper. He refused to look for a rollaway and when asked to speak with a manager we were told he wasn't available. We checked in anyway, as we had already booked and there for three days. A member of our party went and got extra comforters as one member of our party had to sleep on the floor. We were questioned why we needed to many blankets. Walls are paper thin. The second night there was a party next door and music so loud the walls were thumping. When I called to report it I was told "oh yeah we already know and have called them". It did quiet down about 30 mins. This was roughly 130 am. 
+Other than that we received top notch housekeeping services, there was a nice outdoor pool ,and the breakfast was decent, but ends promptly at 9:30 am!  The hotel computer was having issues, so staff allowed us to...As a party of five, we had booked through Expedia, after being told by staff over the phone it would be cheaper. A rollaway was needed and we were told there would be one for our party, just ask at the front desk upon arrival. An extra fee was charged for this, which is to be expected.UPon arrival there the staff on duty said there was no rollaway and that no staff of his would tell a client to book elsewhere because it was cheaper. He refused to look for a rollaway and when asked to speak with a manager we were told he wasn't available. We checked in anyway, as we had already booked and there for three days. A member of our party went and got extra comforters as one member of our party had to sleep on the floor. We were questioned why we needed to many blankets. Walls are paper thin. The second night there was a party next door and music so loud the walls were thumping. When I called to report it I was told "oh yeah we already know and have called them". It did quiet down about 30 mins. This was roughly 130 am. Other than that we received top notch housekeeping services, there was a nice outdoor pool ,and the breakfast was decent, but ends promptly at 9:30 am!  The hotel computer was having issues, so staff allowed us to use the front desk computer to check into our flight.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>As a party of five, we had booked through Expedia, after being told by staff over the phone it would be cheaper. A rollaway was needed and we were told there would be one for our party, just ask at the front desk upon arrival. An extra fee was charged for this, which is to be expected.
+UPon arrival there the staff on duty said there was no rollaway and that no staff of his would tell a client to book elsewhere because it was cheaper. He refused to look for a rollaway and when asked to speak with a manager we were told he wasn't available. We checked in anyway, as we had already booked and there for three days. A member of our party went and got extra comforters as one member of our party had to sleep on the floor. We were questioned why we needed to many blankets. Walls are paper thin. The second night there was a party next door and music so loud the walls were thumping. When I called to report it I was told "oh yeah we already know and have called them". It did quiet down about 30 mins. This was roughly 130 am. 
+Other than that we received top notch housekeeping services, there was a nice outdoor pool ,and the breakfast was decent, but ends promptly at 9:30 am!  The hotel computer was having issues, so staff allowed us to...As a party of five, we had booked through Expedia, after being told by staff over the phone it would be cheaper. A rollaway was needed and we were told there would be one for our party, just ask at the front desk upon arrival. An extra fee was charged for this, which is to be expected.UPon arrival there the staff on duty said there was no rollaway and that no staff of his would tell a client to book elsewhere because it was cheaper. He refused to look for a rollaway and when asked to speak with a manager we were told he wasn't available. We checked in anyway, as we had already booked and there for three days. A member of our party went and got extra comforters as one member of our party had to sleep on the floor. We were questioned why we needed to many blankets. Walls are paper thin. The second night there was a party next door and music so loud the walls were thumping. When I called to report it I was told "oh yeah we already know and have called them". It did quiet down about 30 mins. This was roughly 130 am. Other than that we received top notch housekeeping services, there was a nice outdoor pool ,and the breakfast was decent, but ends promptly at 9:30 am!  The hotel computer was having issues, so staff allowed us to use the front desk computer to check into our flight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r130950963-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>130950963</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This is a great place to stay awesome staff, clean rooms nice breakfast, lighted close parking. I will be using the hotel any time I'm in this area, really nice showers and comfy beds too!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great place to stay awesome staff, clean rooms nice breakfast, lighted close parking. I will be using the hotel any time I'm in this area, really nice showers and comfy beds too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r129264120-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>129264120</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>Great Service at the Sleep Inn</t>
+  </si>
+  <si>
+    <t>The rooms were very nice for the price.  We did attempt to use the outdoor jacuzzi which was broken however the hotel staff offered to move us into a room with a jacuzzi in-room.  Hotel was clean and in a good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were very nice for the price.  We did attempt to use the outdoor jacuzzi which was broken however the hotel staff offered to move us into a room with a jacuzzi in-room.  Hotel was clean and in a good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r125829609-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>125829609</t>
+  </si>
+  <si>
+    <t>03/08/2012</t>
+  </si>
+  <si>
+    <t>Very pleasantly surprised</t>
+  </si>
+  <si>
+    <t>My husband I &amp; I stayed here on the recommendation of our daughter's friend. I was completely thrilled with the rate! The room was wonderful. The only negative thing I can say about it is that the waterproof mattress pad made me uncomfortably warm throughout the night. However, will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>My husband I &amp; I stayed here on the recommendation of our daughter's friend. I was completely thrilled with the rate! The room was wonderful. The only negative thing I can say about it is that the waterproof mattress pad made me uncomfortably warm throughout the night. However, will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r123627908-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>123627908</t>
+  </si>
+  <si>
+    <t>01/25/2012</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>This is a very clean, well cared for motel.  Staff is great, We had a noisey neighbor and we were moved to a new room.  Top quality rooms and service.  There was a problem with whom I scheduled the room through, and I was more nervous about the reservation than they were..  We will stay there again when we return to Pearland.  Great breakfast too!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>This is a very clean, well cared for motel.  Staff is great, We had a noisey neighbor and we were moved to a new room.  Top quality rooms and service.  There was a problem with whom I scheduled the room through, and I was more nervous about the reservation than they were..  We will stay there again when we return to Pearland.  Great breakfast too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r112299322-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>112299322</t>
+  </si>
+  <si>
+    <t>06/08/2011</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, convient  and reasonably priced</t>
+  </si>
+  <si>
+    <t>Called to request two rooms, one with disability accessibility.  When we arrived we received rooms on the first floor, close to the exit. This was wonderful as it cut out a lot of walking. Everyone was polite and very compete. Of course, the breakfast waffles were great. At check-out,everything was ready and accurate. We enjoyed our stay and will stay again when we go to visit relatives in Missouri City, Tx. This Sleep Inn is located close to all types of shopping and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Called to request two rooms, one with disability accessibility.  When we arrived we received rooms on the first floor, close to the exit. This was wonderful as it cut out a lot of walking. Everyone was polite and very compete. Of course, the breakfast waffles were great. At check-out,everything was ready and accurate. We enjoyed our stay and will stay again when we go to visit relatives in Missouri City, Tx. This Sleep Inn is located close to all types of shopping and restaurants.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1457,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1489,2702 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>207</v>
+      </c>
+      <c r="X22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" t="s">
+        <v>141</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>253</v>
+      </c>
+      <c r="X27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>262</v>
+      </c>
+      <c r="X28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" t="s">
+        <v>271</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>277</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>262</v>
+      </c>
+      <c r="X31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>291</v>
+      </c>
+      <c r="X32" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s">
+        <v>297</v>
+      </c>
+      <c r="L33" t="s">
+        <v>298</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>299</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>291</v>
+      </c>
+      <c r="X33" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>299</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>291</v>
+      </c>
+      <c r="X34" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>149</v>
+      </c>
+      <c r="X35" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" t="s">
+        <v>316</v>
+      </c>
+      <c r="K36" t="s">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s">
+        <v>318</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>149</v>
+      </c>
+      <c r="X36" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>149</v>
+      </c>
+      <c r="X37" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>331</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>149</v>
+      </c>
+      <c r="X38" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>338</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>149</v>
+      </c>
+      <c r="X39" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" t="s">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s">
+        <v>344</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>149</v>
+      </c>
+      <c r="X40" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_574.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_574.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r588563659-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>816503</t>
+  </si>
+  <si>
+    <t>588563659</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>weekend getaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I took my hubby away for Father's Day so we could both have a break. He loved the hot tub by the pool!  Our bed was SOOOOO comfy. I didn't want to get out of it!  LOL We had a nice time and felt rested when we left. Front desk personnel was polite and attentive when we called them and the hotel was pretty quiet. We enjoyed it quite a bit. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r587278514-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>587278514</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>A reasonable choice in a pricey market</t>
+  </si>
+  <si>
+    <t>Hotel prices in Pearland (at least those near 288) seem $15-$30 dollars higher than they should be. I've tried several while visiting family there. For us, SI&amp;S is conveniently located. The rooms/beds are good and the breakfast okay. The outdoor pool is a hit with our grandkids (in shade in the morning and the late afternoon). Other Pearland hotels were no better, or were worse, and cost $20 more.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r549628290-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
-    <t>56432</t>
-  </si>
-  <si>
-    <t>816503</t>
-  </si>
-  <si>
     <t>549628290</t>
   </si>
   <si>
@@ -174,9 +210,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We chose this place because it was a few miles from my family’s house and we were visiting for the holidays.  The stay was pretty good, clean and pretty comfortable.  We had a king room with a pull out couch for my daughter.   She ended up sleeping on the couch itself since the springs were poking her from the mattress.  We were on the main floor right next to the elevator and heard that and the ice machine all night long.  The walls to the next rooms seemed sound proof but not the door itself.  On top of that every morning we’d hear the housekeepers yelling, yes yelling, down the hall to someone else. You’d think they’d be more courteous knowing it was early and people might still be asleep.  The breakfast was mediocre at best and from talking to other guests we were not the only ones feeling that way. The clerk the first night was very helpful but the guy the next 2 nights was not so much.  There are 22 families there for FEMA according to one lady I spoke too. Some crime in the area, a stolen car our last night there. They have 2 guest laundry spots if needed, an outdoor pool and a fitness room.  Overall due to the location I was happy but feel it might have been over priced for the stay itself with other factors include.  More</t>
   </si>
   <si>
@@ -225,6 +258,57 @@
     <t>Staff was mostly pleasant and professional. Breakfast is Hot and free, fresh fruit and yogurt. Free Internet access from rooms. Nice hotel decor, lounge decor and room decor of nature with modern design. Third Floor was a bit humid when stepping off the elevator, my room on the first floor was humid when I first walked in. The Fitness room design was nice but the elliptical was very loud, rusted and squeaky so I did not use it. Great selection of television channels for entertainment. I like the availability of note pads and pen on desk (I write a lot of notes).Very secure parking lot with bright lights and cameras. Spacious business desk and chair design but the chair had a really bad looking stain in it. They said they do not provide receipts until checkout which is unprofessional in my opinion. When a customer purchases something they should get some type of receipt immediately after, especially if staying for days. I noticed a Front Desk staff had left my receipt out and faced upwards on the counter one night where others could visibly see it, including other guests. This is not a good business practice especially with identity theft and invasion of privacy being invaded in todays society. Confidentiality, consistent customer service and safety should be a top priority of any business for all customers.I found a baby spider crawling on my bed in the morning.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r449697538-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>449697538</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Great mini vacation</t>
+  </si>
+  <si>
+    <t>Visited Houston and stayed here in Pearland.  July fourth weekend, check-in was easy service at the counter was very helpful, hotel was extremely clean and well kept, pool was not overly crowded and the kids loved the access.  Walking distance to MANY places to eat, banks etc.....parking was easy and accessible.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>neil b, Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Visited Houston and stayed here in Pearland.  July fourth weekend, check-in was easy service at the counter was very helpful, hotel was extremely clean and well kept, pool was not overly crowded and the kids loved the access.  Walking distance to MANY places to eat, banks etc.....parking was easy and accessible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r435632026-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>435632026</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>Very impressed with the service, quality and cleanliness of this hotel. Everything smelled and was very clean. I was in room 107 facing the parking lot and did not hear any noises. I'm very sastified. I will def stay here when I visit Houston again. Breakfast was very good as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Very impressed with the service, quality and cleanliness of this hotel. Everything smelled and was very clean. I was in room 107 facing the parking lot and did not hear any noises. I'm very sastified. I will def stay here when I visit Houston again. Breakfast was very good as well.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r401683091-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
@@ -267,9 +351,6 @@
     <t>I stayed at this Motel from  July 21st till July 25th. I was in town for a family reunion. Honestly I was a little scared to stay at this Motel bc of the reviews. But honestly I had an awesome experience. This place is extremely nice &amp; you truly get your money's worth plus more. This place is very clean &amp; the staff is nice &amp; helpful. The housekeepers come by everyday with clean towels  and they leave your room spotless. It's so hot in Pearland, so it's a great bonus to be able to control your own AC. It felt great coming back to a freshly cleaned room, and cold air blowing daily. I would definitely recommend this place to anybody. It's really nice! They have complimentary breakfast every morning, and the eating area was clean, and the breakfast was great. I will definitely stay here again. Hopefully I can get a whirlpool room next time! MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded August 9, 2016</t>
   </si>
   <si>
@@ -291,15 +372,54 @@
     <t>Room was clean and serviced daily, although I did request extra towels cause grandkids coming to visit and got none.  Refrigerator froze my drinks which was annoying and I told the clerk at checkout, but nothing in response.  Pool was small but the umbrellas on tables worked so we had shade.  They were doing some refreshing of paint in the front drive and it looked nice once done.  Breakfast was just "ok", although it was the exact same every morning.  For those that stay more than a night, it gets old quickly.   Overall, a nice stay and would stay there again for 1 night when traveling but not sure would do multiple nights again.MoreShow less</t>
   </si>
   <si>
-    <t>neil b, Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded January 12, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 12, 2017</t>
-  </si>
-  <si>
     <t>Room was clean and serviced daily, although I did request extra towels cause grandkids coming to visit and got none.  Refrigerator froze my drinks which was annoying and I told the clerk at checkout, but nothing in response.  Pool was small but the umbrellas on tables worked so we had shade.  They were doing some refreshing of paint in the front drive and it looked nice once done.  Breakfast was just "ok", although it was the exact same every morning.  For those that stay more than a night, it gets old quickly.   Overall, a nice stay and would stay there again for 1 night when traveling but not sure would do multiple nights again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r378359872-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>378359872</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Meh...</t>
+  </si>
+  <si>
+    <t>This was an ok experience of staying here. The staff was friendly but when we first got there there was a leak in room 206 so we went down and asked her for a different room. Well, we went there and the room key didn't work. We went back down. They gave us a key that worked.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was an ok experience of staying here. The staff was friendly but when we first got there there was a leak in room 206 so we went down and asked her for a different room. Well, we went there and the room key didn't work. We went back down. They gave us a key that worked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r366351773-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>366351773</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>One Person Great!!! Everyone else.....No So.</t>
+  </si>
+  <si>
+    <t>Young Lady @ Front Desk (Marisol) Awesome!! Jason "The Assistant GM" Horrible!! After my ROOMS weren't cleaned properly, Jason took the time to explain to me everything that HE had did to accommodate us. Not a sincere apology or initial what can we do to make the situation better. After I stated that I would write a review Jason then decided in his own words to "tuck his tail between his legs" and "give in". I never asked for a monetary refund or discount, but he stated he would take $10 off per room. That was a smack in the face because I had multiple rooms for multiple nights. I then expressed my frustration to Jason regarding him, his attitude, and the property. I left the conversation simply stating that he could do whatever he felt was right and appropriate. Needless to say, never heard back from Jason or the Hotel and was charged full price. I should have listened to the wife when we first arrived and not checked in. Based on service (outside of Marisol), cleanliness, and overall experience, this was the worst property I ever stayed on. And I've been in HUNDREDS of hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Young Lady @ Front Desk (Marisol) Awesome!! Jason "The Assistant GM" Horrible!! After my ROOMS weren't cleaned properly, Jason took the time to explain to me everything that HE had did to accommodate us. Not a sincere apology or initial what can we do to make the situation better. After I stated that I would write a review Jason then decided in his own words to "tuck his tail between his legs" and "give in". I never asked for a monetary refund or discount, but he stated he would take $10 off per room. That was a smack in the face because I had multiple rooms for multiple nights. I then expressed my frustration to Jason regarding him, his attitude, and the property. I left the conversation simply stating that he could do whatever he felt was right and appropriate. Needless to say, never heard back from Jason or the Hotel and was charged full price. I should have listened to the wife when we first arrived and not checked in. Based on service (outside of Marisol), cleanliness, and overall experience, this was the worst property I ever stayed on. And I've been in HUNDREDS of hotels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r350045947-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
@@ -381,6 +501,45 @@
     <t>It was very clean.There was a smell when you walk in.It was want ever clean with.It was very easy to check in . There was stain on the sheet.I know it was clean.they could have better  breakfast. The pool is nices . It took a little for the hot water to come onMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r297023437-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>297023437</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Inconsistent... and Roaches.</t>
+  </si>
+  <si>
+    <t>This is the oddest place we've ever stayed at, mostly because it is so inconsistent. What do I mean? For every positive about the place, there is a negative that counteracts it. *Amazing* pool, clean and a great temperature, with a beautiful jacuzzi outside, but no pool towels (and no indication you need one).  Pull out couch for the kids, and no bedding for it in the room.  Very nice breakfast options in concept, but no hot breakfast options are actually available, and when the poor guy working the kitchen brings some eggs, it literally is three scoops and so not enough for the entire lobby waiting for eggs. Comfortable beds-- *horrible* pillows. Two shower heads, very dirty shower.And, I haven't mentioned the roaches. My husband has reminded me that this is in Houston (we live in San Antonio), but I absolutely cannot give a good rating to a place where I kill a roach on the wall directly over the sofa bed where my kids are supposed to sleep. (Not a palmetto bug, that I could've handled... an actual roach.) We have the room abutting the storage room, maybe that's it, but this is the ultimate in inconsistency. The lobby is nicely appointed for the star rating and clean for the star rating, but I just cannot abide trying to sleep knowing there might be roaches crawling all over us.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the oddest place we've ever stayed at, mostly because it is so inconsistent. What do I mean? For every positive about the place, there is a negative that counteracts it. *Amazing* pool, clean and a great temperature, with a beautiful jacuzzi outside, but no pool towels (and no indication you need one).  Pull out couch for the kids, and no bedding for it in the room.  Very nice breakfast options in concept, but no hot breakfast options are actually available, and when the poor guy working the kitchen brings some eggs, it literally is three scoops and so not enough for the entire lobby waiting for eggs. Comfortable beds-- *horrible* pillows. Two shower heads, very dirty shower.And, I haven't mentioned the roaches. My husband has reminded me that this is in Houston (we live in San Antonio), but I absolutely cannot give a good rating to a place where I kill a roach on the wall directly over the sofa bed where my kids are supposed to sleep. (Not a palmetto bug, that I could've handled... an actual roach.) We have the room abutting the storage room, maybe that's it, but this is the ultimate in inconsistency. The lobby is nicely appointed for the star rating and clean for the star rating, but I just cannot abide trying to sleep knowing there might be roaches crawling all over us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r293766780-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>293766780</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Unsettling</t>
+  </si>
+  <si>
+    <t>We have stayed at this facility several times in the past with no problems.  It is centrally located to both the Medical Center &amp; our family.  However the last time we stayed, after spending one night, the next afternoon in less than an hour's time, we had 2 different people come into our room with the key stating it was their room.  When I called the desk after the first incident' I was told we were a "no show".  I never received an apology or even was acknowledged by the gentleman I spoke with.  This was in May, 2015 &amp; have not received a reply to emails or hard copy. Letters from this facility or corporate.  This incident was scarey &amp; the second even more scary.  I would NOT recommend this facility due to the lackadaisical manner in which this was handled.  I could accept it being an error one time, but certainally not twice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at this facility several times in the past with no problems.  It is centrally located to both the Medical Center &amp; our family.  However the last time we stayed, after spending one night, the next afternoon in less than an hour's time, we had 2 different people come into our room with the key stating it was their room.  When I called the desk after the first incident' I was told we were a "no show".  I never received an apology or even was acknowledged by the gentleman I spoke with.  This was in May, 2015 &amp; have not received a reply to emails or hard copy. Letters from this facility or corporate.  This incident was scarey &amp; the second even more scary.  I would NOT recommend this facility due to the lackadaisical manner in which this was handled.  I could accept it being an error one time, but certainally not twice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r291615829-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
@@ -441,21 +600,60 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>No reservation made ahead of time. Googled options. Found Sleep Inn &amp; Suites with a good (4-star) rating. We thought, why not? And so we drove up and got a room. Pleasantly surprised. Close to all things. And room was clean...after all, clean is the most important thing! Added to the good report: Staff was super accommodating.NOTE: Breakfast better than most!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r266556605-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>266556605</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real nice place! </t>
+  </si>
+  <si>
+    <t>Devinny was super nice &amp; the kind of person that every motel should have because she enjoys her job! The motel itself is real nice, actually better than some of its more expensive competitors in the neighborhood that I've stayed atMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Devinny was super nice &amp; the kind of person that every motel should have because she enjoys her job! The motel itself is real nice, actually better than some of its more expensive competitors in the neighborhood that I've stayed atMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r246911947-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>246911947</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Very nice and clean</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay and the hospitality of the people while there. The rooms were clean and in order every aspect the only thing that I wish the motel had is a weekly rate because in my business that's the only way  that I could stay there more but other than that my stay was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded January 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2015</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay and the hospitality of the people while there. The rooms were clean and in order every aspect the only thing that I wish the motel had is a weekly rate because in my business that's the only way  that I could stay there more but other than that my stay was great.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r246793573-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
     <t>246793573</t>
   </si>
   <si>
-    <t>01/01/2015</t>
-  </si>
-  <si>
     <t>Family time!</t>
   </si>
   <si>
@@ -465,12 +663,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded January 11, 2015</t>
-  </si>
-  <si>
-    <t>Responded January 11, 2015</t>
-  </si>
-  <si>
     <t>Family in town, was a great stay. Staff was very professional and making our stay outstanding! Close Pearland Town car, lots of resturants and shopping close by. Would definitely recommend. Oh can't forget the happy hour enjoyed by all!More</t>
   </si>
   <si>
@@ -525,6 +717,57 @@
     <t>Good hotel for visiting the Houston area but on this visit it had a couple of problems. First let me say the staff is always friendly and helpful when we have a question or need something. On this visit the corridor of the first floor was very noisy and extremely loud after 11 pm on both Friday and Sat. nights. A nice sign reminding quiet after 11 pm would be great. Also the breakfast/front desk person did not check on missing breakfast items. We had to go and tell them when something was needed like coffee cups, danish, eggs, breakfast meats, etc. This was at 7 not 9:30 when breakfast closes down.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r231542207-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>231542207</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>The hotel looks very new and and nicely decorated. We had an issue with the light in the first room that we checked into but the front desk staff was very helpful and got us moved to a new room on the same floor. The room was very nice, clean, and spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>The hotel looks very new and and nicely decorated. We had an issue with the light in the first room that we checked into but the front desk staff was very helpful and got us moved to a new room on the same floor. The room was very nice, clean, and spacious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r231538790-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>231538790</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Everything was nice. The staff was nice and friendly and the hotel was was very clean. We had an issues with the main light in the room coming on but the front desk staff worked very quickly to get us moved to a different room on the same floor.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>neil b, Front Office Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Everything was nice. The staff was nice and friendly and the hotel was was very clean. We had an issues with the main light in the room coming on but the front desk staff worked very quickly to get us moved to a different room on the same floor.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r218798242-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
@@ -543,12 +786,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>neil b, Front Office Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded September 30, 2014</t>
-  </si>
-  <si>
-    <t>Responded September 30, 2014</t>
-  </si>
-  <si>
     <t>I enjoyed my stay here. The location was wonderful, although my GPS got confused by the new roads, it is in a beautiful area. This hotel has most things you would assume from a newer modern choice hotel.More</t>
   </si>
   <si>
@@ -597,6 +834,48 @@
     <t>This is a nice hotel close to Houston. We have family in the area and it is perfect to see our family and very easy to Houston to do some sightseeing. The hotel has a nice pool, fitness room and hot breakfast. We were there three days and they did serve the same thing each morning for breakfast. A little more variety would have been nice. All the staff was super nice and helpful and it is close to many restaurants.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r212247451-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>212247451</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Satisfying</t>
+  </si>
+  <si>
+    <t>I have stayed at the Sleep Inn in Pearland several times and I would recommend it to all.  Rooms are spacious and in great condition and will fit your budget.  The stall if very friendly and helpful.  There are several restaurants near by as well and the complimentary breakfast is satisfyingMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at the Sleep Inn in Pearland several times and I would recommend it to all.  Rooms are spacious and in great condition and will fit your budget.  The stall if very friendly and helpful.  There are several restaurants near by as well and the complimentary breakfast is satisfyingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r212216556-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>212216556</t>
+  </si>
+  <si>
+    <t>OUR CHOICE TO STAY NEAR HOUSTON</t>
+  </si>
+  <si>
+    <t>We stay here twice each year when in HOUSTON for medical visits. Have done so for at least 5 years.  Always a  great stay. Great breakfast,,even better MANAGERS RECEPTION.  Location very convenient to highway into HOUSTON. Nice quiet out-of-town feel. Very helpful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay here twice each year when in HOUSTON for medical visits. Have done so for at least 5 years.  Always a  great stay. Great breakfast,,even better MANAGERS RECEPTION.  Location very convenient to highway into HOUSTON. Nice quiet out-of-town feel. Very helpful staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r211686949-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
@@ -612,9 +891,6 @@
     <t>Found this hotel for company executives and customers from overseas.  Customer Service/Reservations was superb!  Very helpful and professional.  They all enjoyed the beautiful suites.  Nice and clean.  Jen, you are super!  Thank you!MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded June 24, 2014</t>
   </si>
   <si>
@@ -666,24 +942,57 @@
     <t>They have been re-decorating all the rooms. I have stayed here on 3 successive business trips and had good experiences every time. The rooms are large, as are the bathrooms. Very large wall-mounted flat-screen TVs. Nice breakfast items, both hot and cold. not too far off the 288 expressway.There is a nice pool, which I did not use. No restaurent but near to many choices for food.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r205044850-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>205044850</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Pretty good hotel in its class</t>
+  </si>
+  <si>
+    <t>Good size rooms, airco is not that noisy, location is great. The furniture in our room was partly broken en damaged. Within 1 hour of making a notice everything was changed and updated. Will go back next timeMoreShow less</t>
+  </si>
+  <si>
+    <t>Good size rooms, airco is not that noisy, location is great. The furniture in our room was partly broken en damaged. Within 1 hour of making a notice everything was changed and updated. Will go back next timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r193928460-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>193928460</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>Excellent guest services!</t>
+  </si>
+  <si>
+    <t>We arrived for a franchise conference on February 5th after 1am  to find we had been moved to this hotel 45 minutes from where we needed to be because our room had been given away near the conference. We were met by the Manager Annell who was not only pleasant but went out of her way to accommodate everything we needed. She was short staff and did everything extra with a smile. We woke up the next day to find her short staffed again and was as pleasant as she was and more doing even more jobs.The cab driver did not show up to pick us up and she even helped us out with that, going out of her way again. We only were there for a very short time but Annell was the best guest services manager I have seen in a long time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>We arrived for a franchise conference on February 5th after 1am  to find we had been moved to this hotel 45 minutes from where we needed to be because our room had been given away near the conference. We were met by the Manager Annell who was not only pleasant but went out of her way to accommodate everything we needed. She was short staff and did everything extra with a smile. We woke up the next day to find her short staffed again and was as pleasant as she was and more doing even more jobs.The cab driver did not show up to pick us up and she even helped us out with that, going out of her way again. We only were there for a very short time but Annell was the best guest services manager I have seen in a long time.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r193867934-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
     <t>193867934</t>
   </si>
   <si>
-    <t>02/12/2014</t>
-  </si>
-  <si>
     <t>Accidental visit</t>
   </si>
   <si>
     <t>We were rerouted to this hotel when at 12am, our original hotel gave away our room. Annell, the desk person, ensured our (mine and my business partner's) rooms were close. In addition, she set up a wake up call for my partner and called for car service in the morning. All with a smile.The next morning, Annell had set up the food service. She also called without our request to verify the pickup for us. They cancelled on her. This was at the end of her shift. Instead of trying to find another service for us, SHE drove us to our other hotel!!! The woman was unbelievable. You do not meet great people like her very often. We were lucky!  She is an asset wherever she works.MoreShow less</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>neil b, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded June 3, 2014</t>
   </si>
   <si>
@@ -735,6 +1044,42 @@
     <t>I stayed there 2 weeks ago with my husband and due to his job we extended or stay through Thursday. I'm so glad we stayed because there was a happy hour, free of charge for all guests.  It was very nice,, had some wings and beer. Had no problems with our stay, free breakfast and wifi was included and the walk in shower was amazing! Best rate we found! We'll be back in 3 weeks! :)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r184682627-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>184682627</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>My husband stayed at Sleep Inn &amp; Suites this week while in the Houston Metroplex area on business.  Everyone was attentive to our needs &amp; courteous , the facilities were clean, maintained well.  The rooms were equipped with all the latest amenities.  The location was easy to get to from freeway, great shopping just down the road without having to get on freeway again...centrally located.  Will definitely stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband stayed at Sleep Inn &amp; Suites this week while in the Houston Metroplex area on business.  Everyone was attentive to our needs &amp; courteous , the facilities were clean, maintained well.  The rooms were equipped with all the latest amenities.  The location was easy to get to from freeway, great shopping just down the road without having to get on freeway again...centrally located.  Will definitely stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r184381170-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>184381170</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Awesome place to stay!!!!!!!</t>
+  </si>
+  <si>
+    <t>I stay here throughout the week on business.  I must say that this is a great hotel.  Staff is always friendly.  And the hotel is always clean.  Rooms are very comfortable and have all modern amenities.  Thank you for a wonderful stay.  J WhiteMoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here throughout the week on business.  I must say that this is a great hotel.  Staff is always friendly.  And the hotel is always clean.  Rooms are very comfortable and have all modern amenities.  Thank you for a wonderful stay.  J WhiteMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r183879678-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
@@ -811,6 +1156,45 @@
   </si>
   <si>
     <t>Just spent the weekend at this hotel. It was our first experience at this property and I would highly recommend it to anyone. Its clean, modern, well run, and has all the amenities one would want in a motel stay. The pool area is clean though a bit small. the rooms are luxurious and have all the modern conveniences you want. The staff was friendly and attentive- front desk staff courteous and helpful, and the whole staff seemed eager to please their guests. The continental breakfast was above average. If you want a family friendly place to stay, this is it. Things for everyone to do and very kid friendly-- BorisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r171411816-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>171411816</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>It was okay but ....</t>
+  </si>
+  <si>
+    <t>I will not stay here again , room when arrived was hot . Room smelled kind of musty , and the room was muggy .. Could not sleep at night because I was hot and the room would not cool , I checked out asap!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I will not stay here again , room when arrived was hot . Room smelled kind of musty , and the room was muggy .. Could not sleep at night because I was hot and the room would not cool , I checked out asap!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r165701973-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>165701973</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>"The Best Sleep Inn in Town"Beautiful Stay I must say</t>
+  </si>
+  <si>
+    <t>Booked my room with points *cash. The Lobby smelled wonderful, looked modern. The young lady at the front desk was very professional and polite. My room was wonderful. King Suite. Plenty of room, updated with comfortable modern furniture. The pillow top king size bed was a dream. I had fallen asleep after checking in. It was so quite and comfortable. The hotel has a beautiful pool with hot tube. In the morning a nice breakfast.it was plentyful with a lot of varity, I was really impressed. I enjoyed my stay and can't wait to come back. The only thing that inconvenienced me was lack of parking. All the spots were taken. I did mange to find 1 spot. But other then that, 2 thumbs up. GREAT PLACEMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Booked my room with points *cash. The Lobby smelled wonderful, looked modern. The young lady at the front desk was very professional and polite. My room was wonderful. King Suite. Plenty of room, updated with comfortable modern furniture. The pillow top king size bed was a dream. I had fallen asleep after checking in. It was so quite and comfortable. The hotel has a beautiful pool with hot tube. In the morning a nice breakfast.it was plentyful with a lot of varity, I was really impressed. I enjoyed my stay and can't wait to come back. The only thing that inconvenienced me was lack of parking. All the spots were taken. I did mange to find 1 spot. But other then that, 2 thumbs up. GREAT PLACEMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r165224584-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
@@ -834,9 +1218,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>My girlfriends and I could not find any hotels downtown that was affordable and so we headed to Pearland. We saw Sleep inn and Suites right away from 288 so it was very convenient. I went in and inquired how much rooms cost, it was a little higher than expected but everybody was sold out around. The front desk lady was very helpful seeing there were only a few rooms available. I asked if she could show me a couple of rooms.. She had showed me a King suite? and the Jacuzzi suite.. The rooms were wonderful, and surprisingly clean. I went and got the Jacuzzi suite because it was awesome! She gave us a negotiable rate so I went ahead and got the room.
 For a hotel that was almost sold out I would expect noise and such, and I jinxed myself for thinking it. There was a loud thump above our room that would just not stop. I called the front desk late at night and told her that the guest above us was being too loud. She said she would take of it.. A few minutes later it had stopped and she gave us a call back to let us know... Terrific! :)
 The morning of our check out, we had breakfast at their buffet which was Average, I loved the Texas shaped waffle.
@@ -855,9 +1236,6 @@
     <t>I arrived on Thursday June 20 for a local kids' event and left Sunday morning. I wish I could've stayed longer. My twins loved this place, especially the breakfast! Yummy! It's not a continental breakfast as we first thought, but a full hot breakfast. Staff was super awesome, we asked for extra towels Friday night before getting in the pool and the young lady at front desk even brought it to my room. I wasn't expecting the extra courtesy but it was a nice surprise! We'll be returning. By the way, I each room our group reserved had its own thermostat, flat screen tv, microwave and fridge. Oh, and our double-headed shower was AMAZING!!! Price was perfect and hotel was easy to find.MoreShow less</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>I arrived on Thursday June 20 for a local kids' event and left Sunday morning. I wish I could've stayed longer. My twins loved this place, especially the breakfast! Yummy! It's not a continental breakfast as we first thought, but a full hot breakfast. Staff was super awesome, we asked for extra towels Friday night before getting in the pool and the young lady at front desk even brought it to my room. I wasn't expecting the extra courtesy but it was a nice surprise! We'll be returning. By the way, I each room our group reserved had its own thermostat, flat screen tv, microwave and fridge. Oh, and our double-headed shower was AMAZING!!! Price was perfect and hotel was easy to find.More</t>
   </si>
   <si>
@@ -879,6 +1257,59 @@
     <t>This is a new, no frills hotel.  We were arriving late (10PM) and called the hotel twice to let them know and asked them to turn the air on in the room so it would be cool when we arrived.  Guest agent said no problem.  When we arrived @ 11PM, the room was hot.  I called the front desk to inquire if they received out message, she said no, "must have been the other lady".  I asked for a fan and she said they didn't have any. Next morning we went down for breakfast, and there were no coffee cups at the buffet.  I searched around but didn't locate any.  I notified the front desk agent who replied they are by the coffee maker.  I informed him I looked and only lids were available.  He said I guess we are out and went back to the front desk (20 ft. away).  I asked him to inquire with housekeeping.  He replied they aren't here yet (8:30AM?) .  I asked him to look on one of their carts as they should have cups.  He said it's locked up. I asked him to look again and he found them on a housekeepers cart.  I shouldn't have to be the one to ask him to locate coffee cups.  He was unconcerned.  The breakfast buffet was almost empty and noone was around to take care of it. Overall, rooms were clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r164373432-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>164373432</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay</t>
+  </si>
+  <si>
+    <t>My family and I stayed 4 nights at this hotel.  We came for a graduation and to visit family before our cruise.  We arrived at this hotel flustered due to many flight delays.  The folks at the front desk were extremely nice and efficient to get me checked in to my room right away.  To my surprise, the rooms were very clean.  My family enjoyed the breakfast they offered.  I was surprised to see the variety of breakfast items they had and how well they kept it clean.  The staff and management were extremely helpful in helping us get around throughout our stay.  Thank you very much!!SherlMoreShow less</t>
+  </si>
+  <si>
+    <t>sleepinnpearland, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded September 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2013</t>
+  </si>
+  <si>
+    <t>My family and I stayed 4 nights at this hotel.  We came for a graduation and to visit family before our cruise.  We arrived at this hotel flustered due to many flight delays.  The folks at the front desk were extremely nice and efficient to get me checked in to my room right away.  To my surprise, the rooms were very clean.  My family enjoyed the breakfast they offered.  I was surprised to see the variety of breakfast items they had and how well they kept it clean.  The staff and management were extremely helpful in helping us get around throughout our stay.  Thank you very much!!SherlMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r161584854-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>161584854</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Served my purpose....</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel whilst attending a large conference at Reliant Park. The hotel is located in Pearland which is quite a distance from the Houston districts. If it were not for the shuttle buses provided by the conference organisers for hotels in this area, it would have been very difficult to reach the conference venue as I did not have a rental car. 
+Breakast was ok but very limited in choice and variety. The cutlery was all disposable which I first found a little strange being used to hotels in the UK. But the breakfast area was always clean as was the rest of the hotel and the rooms. 
+The room was very large and spacious with all the necessary amenities. An annoying thing was that the room keycard failed to work most days until it was reset at the front desk. The service offered by front desk was not uniform - I found some staff extremely efficient and professional whilst others were more laid back and failed to action some issues I had in a timely manner. 
+Local and regional calls were free from the hotel and although I did not have to make many calls I found this to be a very good gesture by the hotel. 
+There is no restaurant in this hotel so my dinner choices were limited as there is only one restaurant - a pizzeria - that is walking distance from the hotel....Stayed at this hotel whilst attending a large conference at Reliant Park. The hotel is located in Pearland which is quite a distance from the Houston districts. If it were not for the shuttle buses provided by the conference organisers for hotels in this area, it would have been very difficult to reach the conference venue as I did not have a rental car. Breakast was ok but very limited in choice and variety. The cutlery was all disposable which I first found a little strange being used to hotels in the UK. But the breakfast area was always clean as was the rest of the hotel and the rooms. The room was very large and spacious with all the necessary amenities. An annoying thing was that the room keycard failed to work most days until it was reset at the front desk. The service offered by front desk was not uniform - I found some staff extremely efficient and professional whilst others were more laid back and failed to action some issues I had in a timely manner. Local and regional calls were free from the hotel and although I did not have to make many calls I found this to be a very good gesture by the hotel. There is no restaurant in this hotel so my dinner choices were limited as there is only one restaurant - a pizzeria - that is walking distance from the hotel. There is a large shopping area 5 mins driving distance away so visitors with a car would not have a problem with this issue.Overall, it served my purpose but I would rate my experience as average based on the points mentioned above.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel whilst attending a large conference at Reliant Park. The hotel is located in Pearland which is quite a distance from the Houston districts. If it were not for the shuttle buses provided by the conference organisers for hotels in this area, it would have been very difficult to reach the conference venue as I did not have a rental car. 
+Breakast was ok but very limited in choice and variety. The cutlery was all disposable which I first found a little strange being used to hotels in the UK. But the breakfast area was always clean as was the rest of the hotel and the rooms. 
+The room was very large and spacious with all the necessary amenities. An annoying thing was that the room keycard failed to work most days until it was reset at the front desk. The service offered by front desk was not uniform - I found some staff extremely efficient and professional whilst others were more laid back and failed to action some issues I had in a timely manner. 
+Local and regional calls were free from the hotel and although I did not have to make many calls I found this to be a very good gesture by the hotel. 
+There is no restaurant in this hotel so my dinner choices were limited as there is only one restaurant - a pizzeria - that is walking distance from the hotel....Stayed at this hotel whilst attending a large conference at Reliant Park. The hotel is located in Pearland which is quite a distance from the Houston districts. If it were not for the shuttle buses provided by the conference organisers for hotels in this area, it would have been very difficult to reach the conference venue as I did not have a rental car. Breakast was ok but very limited in choice and variety. The cutlery was all disposable which I first found a little strange being used to hotels in the UK. But the breakfast area was always clean as was the rest of the hotel and the rooms. The room was very large and spacious with all the necessary amenities. An annoying thing was that the room keycard failed to work most days until it was reset at the front desk. The service offered by front desk was not uniform - I found some staff extremely efficient and professional whilst others were more laid back and failed to action some issues I had in a timely manner. Local and regional calls were free from the hotel and although I did not have to make many calls I found this to be a very good gesture by the hotel. There is no restaurant in this hotel so my dinner choices were limited as there is only one restaurant - a pizzeria - that is walking distance from the hotel. There is a large shopping area 5 mins driving distance away so visitors with a car would not have a problem with this issue.Overall, it served my purpose but I would rate my experience as average based on the points mentioned above.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r157988192-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
@@ -897,12 +1328,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>sleepinnpearland, General Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded September 30, 2013</t>
-  </si>
-  <si>
-    <t>Responded September 30, 2013</t>
-  </si>
-  <si>
     <t>My name is Kevin Hall. I am from Brazoria,TX. I want to stop and say how much I have enjoyed my stays at the Pearland Sleep Inn. The rooms are lovely and clean. I really enjoy the managers also. They are some very nice guys and they always treat me extremely well. Out of all the hotels in the Pearland area there is no better choice than the Sleep Inn. Hands down!!!More</t>
   </si>
   <si>
@@ -943,6 +1368,54 @@
   </si>
   <si>
     <t>I was regretting having to stay at the Sleep Inn.  I envisioned a run down hotel with bed bugs.Not so.  New hotel, well run, very clean and a get value for the money.This is a pet friendly hotel.  highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r148789558-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>148789558</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>This is such a nice hotel in a very nice area! The night auditor seemed confused at check in and it took a while but once we were checked in everything was perfect. The room was very clean and really different than the average hotel room, a little more stylish. We checked in with our small dog and the hotel was quiet enough for none of us to be disturbed all night and morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>This is such a nice hotel in a very nice area! The night auditor seemed confused at check in and it took a while but once we were checked in everything was perfect. The room was very clean and really different than the average hotel room, a little more stylish. We checked in with our small dog and the hotel was quiet enough for none of us to be disturbed all night and morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r133145013-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>133145013</t>
+  </si>
+  <si>
+    <t>06/30/2012</t>
+  </si>
+  <si>
+    <t>Poor staff and management</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this Sleep Inn June 22 and 23, 2012.  Everything was adequate until the second night at 10PM.  While the pool closed at 10 the staff did not lock the door to the pool area.  There was a boy's basketball tournament in town and teenage boys went in and out of the pool area, slamming the door, until 12:30 when my husband called the front desk.  Our room was adjacent to the pool door and with every slam, the wall behind our bed rattled.  The night staff asked the boys to leave and they did but the door did slam again twice around 1:30 AM and then it was finally quiet.  My biggest PROBLEM however is how the manager, Neil, will not return my calls to talk about this.  I have now tried to reach him 4 times and I am always told he is out but he will be back tomorrow and give me a call then. I understand mistakes are made and the pool area not being completely closed at 10 was an oversight.  The management"s failure to even return calls is not acceptable.  Management should stand behind their business practices.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>sleepinnpearland, Manager at Sleep Inn &amp; Suites Hotel Pearland - Houston South, responded to this reviewResponded September 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2012</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this Sleep Inn June 22 and 23, 2012.  Everything was adequate until the second night at 10PM.  While the pool closed at 10 the staff did not lock the door to the pool area.  There was a boy's basketball tournament in town and teenage boys went in and out of the pool area, slamming the door, until 12:30 when my husband called the front desk.  Our room was adjacent to the pool door and with every slam, the wall behind our bed rattled.  The night staff asked the boys to leave and they did but the door did slam again twice around 1:30 AM and then it was finally quiet.  My biggest PROBLEM however is how the manager, Neil, will not return my calls to talk about this.  I have now tried to reach him 4 times and I am always told he is out but he will be back tomorrow and give me a call then. I understand mistakes are made and the pool area not being completely closed at 10 was an oversight.  The management"s failure to even return calls is not acceptable.  Management should stand behind their business practices.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r131567960-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
@@ -962,9 +1435,6 @@
 Other than that we received top notch housekeeping services, there was a nice outdoor pool ,and the breakfast was decent, but ends promptly at 9:30 am!  The hotel computer was having issues, so staff allowed us to...As a party of five, we had booked through Expedia, after being told by staff over the phone it would be cheaper. A rollaway was needed and we were told there would be one for our party, just ask at the front desk upon arrival. An extra fee was charged for this, which is to be expected.UPon arrival there the staff on duty said there was no rollaway and that no staff of his would tell a client to book elsewhere because it was cheaper. He refused to look for a rollaway and when asked to speak with a manager we were told he wasn't available. We checked in anyway, as we had already booked and there for three days. A member of our party went and got extra comforters as one member of our party had to sleep on the floor. We were questioned why we needed to many blankets. Walls are paper thin. The second night there was a party next door and music so loud the walls were thumping. When I called to report it I was told "oh yeah we already know and have called them". It did quiet down about 30 mins. This was roughly 130 am. Other than that we received top notch housekeeping services, there was a nice outdoor pool ,and the breakfast was decent, but ends promptly at 9:30 am!  The hotel computer was having issues, so staff allowed us to use the front desk computer to check into our flight.MoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>As a party of five, we had booked through Expedia, after being told by staff over the phone it would be cheaper. A rollaway was needed and we were told there would be one for our party, just ask at the front desk upon arrival. An extra fee was charged for this, which is to be expected.
 UPon arrival there the staff on duty said there was no rollaway and that no staff of his would tell a client to book elsewhere because it was cheaper. He refused to look for a rollaway and when asked to speak with a manager we were told he wasn't available. We checked in anyway, as we had already booked and there for three days. A member of our party went and got extra comforters as one member of our party had to sleep on the floor. We were questioned why we needed to many blankets. Walls are paper thin. The second night there was a party next door and music so loud the walls were thumping. When I called to report it I was told "oh yeah we already know and have called them". It did quiet down about 30 mins. This was roughly 130 am. 
 Other than that we received top notch housekeeping services, there was a nice outdoor pool ,and the breakfast was decent, but ends promptly at 9:30 am!  The hotel computer was having issues, so staff allowed us to...As a party of five, we had booked through Expedia, after being told by staff over the phone it would be cheaper. A rollaway was needed and we were told there would be one for our party, just ask at the front desk upon arrival. An extra fee was charged for this, which is to be expected.UPon arrival there the staff on duty said there was no rollaway and that no staff of his would tell a client to book elsewhere because it was cheaper. He refused to look for a rollaway and when asked to speak with a manager we were told he wasn't available. We checked in anyway, as we had already booked and there for three days. A member of our party went and got extra comforters as one member of our party had to sleep on the floor. We were questioned why we needed to many blankets. Walls are paper thin. The second night there was a party next door and music so loud the walls were thumping. When I called to report it I was told "oh yeah we already know and have called them". It did quiet down about 30 mins. This was roughly 130 am. Other than that we received top notch housekeeping services, there was a nice outdoor pool ,and the breakfast was decent, but ends promptly at 9:30 am!  The hotel computer was having issues, so staff allowed us to use the front desk computer to check into our flight.More</t>
@@ -1006,6 +1476,51 @@
     <t>The rooms were very nice for the price.  We did attempt to use the outdoor jacuzzi which was broken however the hotel staff offered to move us into a room with a jacuzzi in-room.  Hotel was clean and in a good location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r127046625-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>127046625</t>
+  </si>
+  <si>
+    <t>03/31/2012</t>
+  </si>
+  <si>
+    <t>Its okay, but they need to focus on some details.</t>
+  </si>
+  <si>
+    <t>We stayed here March 15th to March 19th. We chose the location to visit my brother, who lives about 10 miles away. We were given an early room arrival, and welcomed by very friendly staff. The rooms were new, clean, with flat screens, nice sized bathrooms, and in a 'suit' layout.
+We basically just slept there, and maybe spent some time between lunch and dinner. However, we could not access the internet the first day. I called the 800#, they thought we were too far from the router. We were in room 301 btw. We were able to get online the second evening with the help of a cable connection. The hotel was experiencing issues while we were there with the provider. 
+The pool area was very clean and sunny, but the water was ice cold, even in the 82' Texas sun, and the hot tub was also 'cool'. I was able to check inside the pump room. The heater was running, but no hot water was being circulated. I sat in the cool-tub for a while to rest my sore back. 
+The beds, while large, were not very comfortable at all. And the room only came with 2 towels for 2 adults. I went to the front desk, and they gladly gave me 2 more. But everyday the maid would take all 4, and only replenish 2. So I made the daily trip to the front desk. During the...We stayed here March 15th to March 19th. We chose the location to visit my brother, who lives about 10 miles away. We were given an early room arrival, and welcomed by very friendly staff. The rooms were new, clean, with flat screens, nice sized bathrooms, and in a 'suit' layout.We basically just slept there, and maybe spent some time between lunch and dinner. However, we could not access the internet the first day. I called the 800#, they thought we were too far from the router. We were in room 301 btw. We were able to get online the second evening with the help of a cable connection. The hotel was experiencing issues while we were there with the provider. The pool area was very clean and sunny, but the water was ice cold, even in the 82' Texas sun, and the hot tub was also 'cool'. I was able to check inside the pump room. The heater was running, but no hot water was being circulated. I sat in the cool-tub for a while to rest my sore back. The beds, while large, were not very comfortable at all. And the room only came with 2 towels for 2 adults. I went to the front desk, and they gladly gave me 2 more. But everyday the maid would take all 4, and only replenish 2. So I made the daily trip to the front desk. During the Sunday of our stay, the maid did not stop at all. Not sure why. The free breakfast is adequate, with Texas-shaped waffles, and the area, while very busy, this intersection allows easy access to the areas highways. and Hobby Airport. I like Choice Hotels, but would probably spend the extra $10 and stay at a nearby Comfort Inn, or just go to the neighboring Marriott next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We stayed here March 15th to March 19th. We chose the location to visit my brother, who lives about 10 miles away. We were given an early room arrival, and welcomed by very friendly staff. The rooms were new, clean, with flat screens, nice sized bathrooms, and in a 'suit' layout.
+We basically just slept there, and maybe spent some time between lunch and dinner. However, we could not access the internet the first day. I called the 800#, they thought we were too far from the router. We were in room 301 btw. We were able to get online the second evening with the help of a cable connection. The hotel was experiencing issues while we were there with the provider. 
+The pool area was very clean and sunny, but the water was ice cold, even in the 82' Texas sun, and the hot tub was also 'cool'. I was able to check inside the pump room. The heater was running, but no hot water was being circulated. I sat in the cool-tub for a while to rest my sore back. 
+The beds, while large, were not very comfortable at all. And the room only came with 2 towels for 2 adults. I went to the front desk, and they gladly gave me 2 more. But everyday the maid would take all 4, and only replenish 2. So I made the daily trip to the front desk. During the...We stayed here March 15th to March 19th. We chose the location to visit my brother, who lives about 10 miles away. We were given an early room arrival, and welcomed by very friendly staff. The rooms were new, clean, with flat screens, nice sized bathrooms, and in a 'suit' layout.We basically just slept there, and maybe spent some time between lunch and dinner. However, we could not access the internet the first day. I called the 800#, they thought we were too far from the router. We were in room 301 btw. We were able to get online the second evening with the help of a cable connection. The hotel was experiencing issues while we were there with the provider. The pool area was very clean and sunny, but the water was ice cold, even in the 82' Texas sun, and the hot tub was also 'cool'. I was able to check inside the pump room. The heater was running, but no hot water was being circulated. I sat in the cool-tub for a while to rest my sore back. The beds, while large, were not very comfortable at all. And the room only came with 2 towels for 2 adults. I went to the front desk, and they gladly gave me 2 more. But everyday the maid would take all 4, and only replenish 2. So I made the daily trip to the front desk. During the Sunday of our stay, the maid did not stop at all. Not sure why. The free breakfast is adequate, with Texas-shaped waffles, and the area, while very busy, this intersection allows easy access to the areas highways. and Hobby Airport. I like Choice Hotels, but would probably spend the extra $10 and stay at a nearby Comfort Inn, or just go to the neighboring Marriott next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r126236965-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>126236965</t>
+  </si>
+  <si>
+    <t>03/17/2012</t>
+  </si>
+  <si>
+    <t>Stinky-wouldn't stay there again!</t>
+  </si>
+  <si>
+    <t>Nice hotel with friendly staff. Wouldn't stay in pet-friendly hotel again, though. Welcomed by the smell of wet dog as we stepped off of the elevator. There were two small dogs in a room across the hall that kept yapping away. for all of our stay and which made it hard to enjoy the room.  Also noticed urine in the elevator. I don't have any pets, but had pet hair on my clothes.  I had laid my clothes on the bed, which means there must've been pet hair on the bedspread.  Didn't even consider sitting on the chair in the room.  The room looked clean, but I guess it must be difficult to get rid of all the pet hair.I don't know how anyone like me with allergies to animal dander could possibly stay at this hotel.  I would have liked the option for a pet-free room on a pet-free floor.  Will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel with friendly staff. Wouldn't stay in pet-friendly hotel again, though. Welcomed by the smell of wet dog as we stepped off of the elevator. There were two small dogs in a room across the hall that kept yapping away. for all of our stay and which made it hard to enjoy the room.  Also noticed urine in the elevator. I don't have any pets, but had pet hair on my clothes.  I had laid my clothes on the bed, which means there must've been pet hair on the bedspread.  Didn't even consider sitting on the chair in the room.  The room looked clean, but I guess it must be difficult to get rid of all the pet hair.I don't know how anyone like me with allergies to animal dander could possibly stay at this hotel.  I would have liked the option for a pet-free room on a pet-free floor.  Will not stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r125829609-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1021,9 +1536,6 @@
     <t>My husband I &amp; I stayed here on the recommendation of our daughter's friend. I was completely thrilled with the rate! The room was wonderful. The only negative thing I can say about it is that the waterproof mattress pad made me uncomfortably warm throughout the night. However, will definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2012</t>
-  </si>
-  <si>
     <t>My husband I &amp; I stayed here on the recommendation of our daughter's friend. I was completely thrilled with the rate! The room was wonderful. The only negative thing I can say about it is that the waterproof mattress pad made me uncomfortably warm throughout the night. However, will definitely stay here again.More</t>
   </si>
   <si>
@@ -1064,6 +1576,27 @@
   </si>
   <si>
     <t>Called to request two rooms, one with disability accessibility.  When we arrived we received rooms on the first floor, close to the exit. This was wonderful as it cut out a lot of walking. Everyone was polite and very compete. Of course, the breakfast waffles were great. At check-out,everything was ready and accurate. We enjoyed our stay and will stay again when we go to visit relatives in Missouri City, Tx. This Sleep Inn is located close to all types of shopping and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d816503-r32146351-Sleep_Inn_Suites_Hotel_Pearland_Houston_South-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>32146351</t>
+  </si>
+  <si>
+    <t>06/11/2009</t>
+  </si>
+  <si>
+    <t>My clients we unhappy with with the way things were going but thankfully Sleep Inn saved my account.</t>
+  </si>
+  <si>
+    <t>My client's luggage was lost, we got lost coming in from Bush Airport, with only the front desk clerk as our GPS. By the time we got to the hotel, she had a map of local restaurants for us and the new mall for my client to get a change of clothes. She also had our room keys ready! She was patient, even though we called her a few times too many.  By the end of the evening I had a happy client, and Sleep Inn &amp; Suites had a customer for life! The customer service that we received could not have been better - it was what I would normally expect from a $200 a night hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>My client's luggage was lost, we got lost coming in from Bush Airport, with only the front desk clerk as our GPS. By the time we got to the hotel, she had a map of local restaurants for us and the new mall for my client to get a change of clothes. She also had our room keys ready! She was patient, even though we called her a few times too many.  By the end of the evening I had a happy client, and Sleep Inn &amp; Suites had a customer for life! The customer service that we received could not have been better - it was what I would normally expect from a $200 a night hotel.More</t>
   </si>
 </sst>
 </file>
@@ -1598,14 +2131,10 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1618,7 +2147,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1634,38 +2163,36 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
@@ -1673,7 +2200,7 @@
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1681,7 +2208,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1697,54 +2224,48 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1760,52 +2281,54 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1821,52 +2344,54 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1882,7 +2407,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1891,47 +2416,49 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1947,40 +2474,40 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1990,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -2012,58 +2539,52 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="X9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Y9" t="s">
         <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -2079,7 +2600,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2088,25 +2609,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2118,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -2140,7 +2661,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2149,43 +2670,47 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" t="s">
         <v>118</v>
-      </c>
-      <c r="X11" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2201,7 +2726,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2210,47 +2735,39 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -2266,7 +2783,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2275,49 +2792,49 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="X13" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -2333,7 +2850,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2342,31 +2859,31 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2376,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -2398,7 +2915,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2407,49 +2924,49 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
+      <c r="Q15" t="n">
         <v>4</v>
       </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2465,7 +2982,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2474,47 +2991,43 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2530,7 +3043,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2539,49 +3052,47 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -2597,7 +3108,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2606,49 +3117,49 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>157</v>
+      </c>
       <c r="P18" t="n">
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
         <v>3</v>
       </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -2664,7 +3175,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2673,49 +3184,43 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="X19" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -2731,7 +3236,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2740,38 +3245,32 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2780,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -2802,7 +3301,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2811,53 +3310,49 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>141</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
@@ -2873,7 +3368,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2882,53 +3377,43 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="X22" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
@@ -2944,7 +3429,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2953,37 +3438,33 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
-      <c r="N23" t="s">
-        <v>221</v>
-      </c>
-      <c r="O23" t="s">
-        <v>141</v>
-      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="n">
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -2993,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="X23" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -3015,7 +3496,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3024,43 +3505,47 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
@@ -3076,7 +3561,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3085,41 +3570,37 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>141</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3131,7 +3612,7 @@
         <v>223</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
@@ -3147,7 +3628,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3156,53 +3637,47 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="O26" t="s">
-        <v>141</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
@@ -3218,7 +3693,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3227,38 +3702,32 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
       </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3267,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3289,7 +3758,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3298,53 +3767,43 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="X28" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
@@ -3360,7 +3819,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3369,32 +3828,28 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>271</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
         <v>5</v>
       </c>
@@ -3409,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="X29" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
@@ -3431,7 +3886,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3440,37 +3895,33 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>277</v>
-      </c>
-      <c r="O30" t="s">
-        <v>52</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
         <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3483,10 +3934,10 @@
         <v>262</v>
       </c>
       <c r="X30" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y30" t="s">
         <v>263</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="31">
@@ -3502,7 +3953,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3511,53 +3962,49 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="X31" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
@@ -3573,7 +4020,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3582,25 +4029,25 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3609,7 +4056,7 @@
         <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -3622,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="X32" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="Y32" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
@@ -3644,7 +4091,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3653,25 +4100,25 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3687,19 +4134,19 @@
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="X33" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
@@ -3715,7 +4162,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3724,25 +4171,25 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3770,7 +4217,7 @@
         <v>292</v>
       </c>
       <c r="Y34" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35">
@@ -3786,7 +4233,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3795,53 +4242,53 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="X35" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Y35" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
@@ -3857,7 +4304,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3866,22 +4313,26 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+      <c r="N36" t="s">
+        <v>277</v>
+      </c>
+      <c r="O36" t="s">
+        <v>95</v>
+      </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
@@ -3889,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -3902,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="X36" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Y36" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37">
@@ -3924,7 +4375,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3933,49 +4384,53 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+      <c r="N37" t="s">
+        <v>277</v>
+      </c>
+      <c r="O37" t="s">
+        <v>95</v>
+      </c>
       <c r="P37" t="n">
         <v>4</v>
       </c>
       <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
         <v>4</v>
       </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="X37" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38">
@@ -3991,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4000,37 +4455,37 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K38" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4040,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="X38" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Y38" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39">
@@ -4062,7 +4517,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4071,37 +4526,37 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="K39" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4111,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="X39" t="s">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="Y39" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40">
@@ -4133,58 +4588,1953 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" t="s">
+        <v>332</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>333</v>
+      </c>
+      <c r="O40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>325</v>
+      </c>
+      <c r="X40" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>336</v>
+      </c>
+      <c r="J41" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" t="s">
+        <v>338</v>
+      </c>
+      <c r="L41" t="s">
+        <v>339</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>340</v>
       </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="O41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>325</v>
+      </c>
+      <c r="X41" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y41" t="s">
         <v>341</v>
       </c>
-      <c r="J40" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
         <v>342</v>
       </c>
-      <c r="K40" t="s">
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
         <v>343</v>
       </c>
-      <c r="L40" t="s">
+      <c r="J42" t="s">
         <v>344</v>
       </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
-      <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s">
-        <v>149</v>
-      </c>
-      <c r="X40" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y40" t="s">
+      <c r="K42" t="s">
         <v>345</v>
+      </c>
+      <c r="L42" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>325</v>
+      </c>
+      <c r="X42" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s">
+        <v>352</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>340</v>
+      </c>
+      <c r="O43" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>325</v>
+      </c>
+      <c r="X43" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>359</v>
+      </c>
+      <c r="O44" t="s">
+        <v>95</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>360</v>
+      </c>
+      <c r="X44" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>366</v>
+      </c>
+      <c r="L45" t="s">
+        <v>367</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>359</v>
+      </c>
+      <c r="O45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>368</v>
+      </c>
+      <c r="X45" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>376</v>
+      </c>
+      <c r="O46" t="s">
+        <v>57</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>377</v>
+      </c>
+      <c r="X46" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>380</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>381</v>
+      </c>
+      <c r="J47" t="s">
+        <v>382</v>
+      </c>
+      <c r="K47" t="s">
+        <v>383</v>
+      </c>
+      <c r="L47" t="s">
+        <v>384</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>377</v>
+      </c>
+      <c r="X47" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48" t="s">
+        <v>388</v>
+      </c>
+      <c r="K48" t="s">
+        <v>389</v>
+      </c>
+      <c r="L48" t="s">
+        <v>390</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>57</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>377</v>
+      </c>
+      <c r="X48" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>394</v>
+      </c>
+      <c r="J49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K49" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" t="s">
+        <v>397</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>398</v>
+      </c>
+      <c r="O49" t="s">
+        <v>246</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>377</v>
+      </c>
+      <c r="X49" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>391</v>
+      </c>
+      <c r="O50" t="s">
+        <v>57</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>377</v>
+      </c>
+      <c r="X50" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>405</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>406</v>
+      </c>
+      <c r="J51" t="s">
+        <v>407</v>
+      </c>
+      <c r="K51" t="s">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>391</v>
+      </c>
+      <c r="O51" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>377</v>
+      </c>
+      <c r="X51" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>412</v>
+      </c>
+      <c r="J52" t="s">
+        <v>413</v>
+      </c>
+      <c r="K52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L52" t="s">
+        <v>415</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>391</v>
+      </c>
+      <c r="O52" t="s">
+        <v>57</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>416</v>
+      </c>
+      <c r="X52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>95</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>416</v>
+      </c>
+      <c r="X53" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>427</v>
+      </c>
+      <c r="J54" t="s">
+        <v>428</v>
+      </c>
+      <c r="K54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s">
+        <v>430</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>431</v>
+      </c>
+      <c r="O54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>416</v>
+      </c>
+      <c r="X54" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>433</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>434</v>
+      </c>
+      <c r="J55" t="s">
+        <v>435</v>
+      </c>
+      <c r="K55" t="s">
+        <v>436</v>
+      </c>
+      <c r="L55" t="s">
+        <v>437</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>438</v>
+      </c>
+      <c r="O55" t="s">
+        <v>57</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>416</v>
+      </c>
+      <c r="X55" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>440</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>441</v>
+      </c>
+      <c r="J56" t="s">
+        <v>442</v>
+      </c>
+      <c r="K56" t="s">
+        <v>443</v>
+      </c>
+      <c r="L56" t="s">
+        <v>444</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>438</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>416</v>
+      </c>
+      <c r="X56" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>446</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>447</v>
+      </c>
+      <c r="J57" t="s">
+        <v>448</v>
+      </c>
+      <c r="K57" t="s">
+        <v>449</v>
+      </c>
+      <c r="L57" t="s">
+        <v>450</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>451</v>
+      </c>
+      <c r="O57" t="s">
+        <v>157</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>416</v>
+      </c>
+      <c r="X57" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>453</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>454</v>
+      </c>
+      <c r="J58" t="s">
+        <v>455</v>
+      </c>
+      <c r="K58" t="s">
+        <v>456</v>
+      </c>
+      <c r="L58" t="s">
+        <v>457</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>458</v>
+      </c>
+      <c r="O58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>459</v>
+      </c>
+      <c r="X58" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>462</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>463</v>
+      </c>
+      <c r="J59" t="s">
+        <v>464</v>
+      </c>
+      <c r="K59" t="s">
+        <v>465</v>
+      </c>
+      <c r="L59" t="s">
+        <v>466</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>458</v>
+      </c>
+      <c r="O59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>207</v>
+      </c>
+      <c r="X59" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>207</v>
+      </c>
+      <c r="X60" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>475</v>
+      </c>
+      <c r="J61" t="s">
+        <v>476</v>
+      </c>
+      <c r="K61" t="s">
+        <v>477</v>
+      </c>
+      <c r="L61" t="s">
+        <v>478</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>207</v>
+      </c>
+      <c r="X61" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>480</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>481</v>
+      </c>
+      <c r="J62" t="s">
+        <v>482</v>
+      </c>
+      <c r="K62" t="s">
+        <v>483</v>
+      </c>
+      <c r="L62" t="s">
+        <v>484</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>485</v>
+      </c>
+      <c r="O62" t="s">
+        <v>57</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>207</v>
+      </c>
+      <c r="X62" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>487</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>488</v>
+      </c>
+      <c r="J63" t="s">
+        <v>489</v>
+      </c>
+      <c r="K63" t="s">
+        <v>490</v>
+      </c>
+      <c r="L63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>485</v>
+      </c>
+      <c r="O63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>207</v>
+      </c>
+      <c r="X63" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>493</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>494</v>
+      </c>
+      <c r="J64" t="s">
+        <v>495</v>
+      </c>
+      <c r="K64" t="s">
+        <v>496</v>
+      </c>
+      <c r="L64" t="s">
+        <v>497</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>485</v>
+      </c>
+      <c r="O64" t="s">
+        <v>57</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>207</v>
+      </c>
+      <c r="X64" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>499</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>500</v>
+      </c>
+      <c r="J65" t="s">
+        <v>501</v>
+      </c>
+      <c r="K65" t="s">
+        <v>502</v>
+      </c>
+      <c r="L65" t="s">
+        <v>503</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>504</v>
+      </c>
+      <c r="O65" t="s">
+        <v>57</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>207</v>
+      </c>
+      <c r="X65" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>506</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>507</v>
+      </c>
+      <c r="J66" t="s">
+        <v>508</v>
+      </c>
+      <c r="K66" t="s">
+        <v>509</v>
+      </c>
+      <c r="L66" t="s">
+        <v>510</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>207</v>
+      </c>
+      <c r="X66" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59108</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>512</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>513</v>
+      </c>
+      <c r="J67" t="s">
+        <v>514</v>
+      </c>
+      <c r="K67" t="s">
+        <v>515</v>
+      </c>
+      <c r="L67" t="s">
+        <v>516</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>517</v>
+      </c>
+      <c r="O67" t="s">
+        <v>95</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>207</v>
+      </c>
+      <c r="X67" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
